--- a/tradept/Excel/Localization/Main/english/C触发器_Triggers_MainStory_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/C触发器_Triggers_MainStory_hotfix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B72E35-6F11-42AF-BD12-332DA57571BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9599F21A-8F62-48FB-81E9-2F776648F842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,6 +119,9 @@
     <t>大主线新版米尔</t>
   </si>
   <si>
+    <t>大主线新版琨牙</t>
+  </si>
+  <si>
     <t>大主线新版火魔结界银珊</t>
   </si>
   <si>
@@ -182,6 +185,9 @@
     <t>大主线新版霍驹谈和</t>
   </si>
   <si>
+    <t>[[imp:这里有一份停战协议，需要你签署，这关乎到人类与火魔人的未来，也许能避免一场新的日蚀]]</t>
+  </si>
+  <si>
     <t>大主线新版霍驹获得黑血水晶野兽血脉</t>
   </si>
   <si>
@@ -398,6 +404,9 @@
     <t>新主线幼年大河女神</t>
   </si>
   <si>
+    <t>大主线新版1525</t>
+  </si>
+  <si>
     <t>大主线新版15252</t>
   </si>
   <si>
@@ -416,6 +425,9 @@
     <t>新主线结局大河女神河边</t>
   </si>
   <si>
+    <t>大主线新版1537</t>
+  </si>
+  <si>
     <t>大主线新版1538</t>
   </si>
   <si>
@@ -431,6 +443,12 @@
     <t>大主线新版16银珊</t>
   </si>
   <si>
+    <t>大主线新版1601</t>
+  </si>
+  <si>
+    <t>大主线新版1605</t>
+  </si>
+  <si>
     <t>大主线新版1607</t>
   </si>
   <si>
@@ -527,12 +545,6 @@
     <t>纳米西部落外交重置</t>
   </si>
   <si>
-    <t>大主线新版琨 foto</t>
-  </si>
-  <si>
-    <t>[[imp:这里有一份停战协议，需要你签署，这关乎到人类与火魔人的未来，也许能避免一场新的日蚀] ]</t>
-  </si>
-  <si>
     <t>[[imp:Você tem um tratado em suas mãos. Deve ser assinado para estabelecer a paz entre o Ifrit e a humanidade e para evitar outro Sol Negro.]]</t>
   </si>
   <si>
@@ -554,19 +566,7 @@
     <t>[[imp:Eu tenho algo semelhante. Você pode estar interessado.]]</t>
   </si>
   <si>
-    <t>1525</t>
-  </si>
-  <si>
-    <t>1537</t>
-  </si>
-  <si>
     <t>[[imp:Como você conheceu a princesa Ilayda?]]</t>
-  </si>
-  <si>
-    <t>1601</t>
-  </si>
-  <si>
-    <t>1605</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -622,6 +622,12 @@
         <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="none"/>
@@ -755,6 +761,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -792,12 +801,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -812,67 +824,55 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -881,41 +881,47 @@
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1271,2465 +1277,2465 @@
   <dimension ref="A1:C523"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C157"/>
+      <selection activeCell="C2" sqref="C2:C523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:3" ht="22.5">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="22.5">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:3" ht="33.75">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:3" ht="22.5">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="51"/>
+      <c r="B4" s="9"/>
     </row>
     <row r="5" spans="1:3" ht="22.5">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="51"/>
+      <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:3" ht="22.5">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="53"/>
+      <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:3" ht="22.5">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="53"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:3" ht="22.5">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="51"/>
+      <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:3" ht="33.75">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="51"/>
+      <c r="B9" s="11"/>
     </row>
     <row r="10" spans="1:3" ht="22.5">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="51"/>
+      <c r="B10" s="11"/>
     </row>
     <row r="11" spans="1:3" ht="22.5">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="51"/>
+      <c r="B11" s="11"/>
     </row>
     <row r="12" spans="1:3" ht="22.5">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="22.5">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="51"/>
+      <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="22.5">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:3" ht="22.5">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="51"/>
+      <c r="B15" s="11"/>
     </row>
     <row r="16" spans="1:3" ht="22.5">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:2" ht="22.5">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="51"/>
+      <c r="B17" s="11"/>
     </row>
     <row r="18" spans="1:2" ht="22.5">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="11"/>
     </row>
     <row r="19" spans="1:2" ht="22.5">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="51"/>
+      <c r="B19" s="11"/>
     </row>
     <row r="20" spans="1:2" ht="22.5">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="11"/>
     </row>
     <row r="21" spans="1:2" ht="22.5">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="51"/>
+      <c r="B21" s="11"/>
     </row>
     <row r="22" spans="1:2" ht="22.5">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="51"/>
+      <c r="B22" s="11"/>
     </row>
     <row r="23" spans="1:2" ht="22.5">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="51"/>
+      <c r="B23" s="9"/>
     </row>
     <row r="24" spans="1:2" ht="22.5">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="9"/>
+    </row>
+    <row r="25" spans="1:2" ht="33.75">
+      <c r="A25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26" spans="1:2" ht="22.5">
+      <c r="A26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="9"/>
+    </row>
+    <row r="27" spans="1:2" ht="22.5">
+      <c r="A27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="11"/>
+    </row>
+    <row r="28" spans="1:2" ht="22.5">
+      <c r="A28" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="11"/>
+    </row>
+    <row r="29" spans="1:2" ht="22.5">
+      <c r="A29" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="11"/>
+    </row>
+    <row r="30" spans="1:2" ht="22.5">
+      <c r="A30" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="9"/>
+    </row>
+    <row r="31" spans="1:2" ht="22.5">
+      <c r="A31" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="11"/>
+    </row>
+    <row r="32" spans="1:2" ht="22.5">
+      <c r="A32" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="11"/>
+    </row>
+    <row r="33" spans="1:3" ht="22.5">
+      <c r="A33" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="9"/>
+    </row>
+    <row r="34" spans="1:3" ht="22.5">
+      <c r="A34" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="9"/>
+    </row>
+    <row r="35" spans="1:3" ht="22.5">
+      <c r="A35" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="9"/>
+    </row>
+    <row r="36" spans="1:3" ht="22.5">
+      <c r="A36" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="9"/>
+    </row>
+    <row r="37" spans="1:3" ht="22.5">
+      <c r="A37" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="9"/>
+    </row>
+    <row r="38" spans="1:3" ht="22.5">
+      <c r="A38" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="11"/>
+    </row>
+    <row r="39" spans="1:3" ht="33.75">
+      <c r="A39" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="9"/>
+    </row>
+    <row r="40" spans="1:3" ht="33.75">
+      <c r="A40" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="9"/>
+    </row>
+    <row r="41" spans="1:3" ht="33.75">
+      <c r="A41" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="9"/>
+    </row>
+    <row r="42" spans="1:3" ht="22.5">
+      <c r="A42" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="9"/>
+    </row>
+    <row r="43" spans="1:3" ht="45">
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="12"/>
+    </row>
+    <row r="44" spans="1:3" ht="33.75">
+      <c r="A44" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="13"/>
+    </row>
+    <row r="45" spans="1:3" ht="101.25">
+      <c r="A45" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="55" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="45">
+      <c r="A46" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="55" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="33.75">
+      <c r="A47" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="55" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="33.75">
+      <c r="A48" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="14"/>
+    </row>
+    <row r="49" spans="1:3" ht="45">
+      <c r="A49" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="55" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="22.5">
+      <c r="A50" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="14"/>
+    </row>
+    <row r="51" spans="1:3" ht="22.5">
+      <c r="A51" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="14"/>
+    </row>
+    <row r="52" spans="1:3" ht="33.75">
+      <c r="A52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="12"/>
+    </row>
+    <row r="53" spans="1:3" ht="33.75">
+      <c r="A53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="12"/>
+    </row>
+    <row r="54" spans="1:3" ht="33.75">
+      <c r="A54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="12"/>
+    </row>
+    <row r="55" spans="1:3" ht="33.75">
+      <c r="A55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="12"/>
+    </row>
+    <row r="56" spans="1:3" ht="33.75">
+      <c r="A56" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="15"/>
+    </row>
+    <row r="57" spans="1:3" ht="33.75">
+      <c r="A57" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="15"/>
+    </row>
+    <row r="58" spans="1:3" ht="56.25">
+      <c r="A58" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="15"/>
+    </row>
+    <row r="59" spans="1:3" ht="22.5">
+      <c r="A59" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="18"/>
+    </row>
+    <row r="60" spans="1:3" ht="22.5">
+      <c r="A60" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="55" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="33.75">
+      <c r="A61" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="55" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="33.75">
+      <c r="A62" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="18"/>
+    </row>
+    <row r="63" spans="1:3" ht="33.75">
+      <c r="A63" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="18"/>
+    </row>
+    <row r="64" spans="1:3" ht="33.75">
+      <c r="A64" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="18"/>
+    </row>
+    <row r="65" spans="1:3" ht="33.75">
+      <c r="A65" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="9"/>
+    </row>
+    <row r="66" spans="1:3" ht="33.75">
+      <c r="A66" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="20"/>
+    </row>
+    <row r="67" spans="1:3" ht="101.25">
+      <c r="A67" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" s="55" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="33.75">
+      <c r="A68" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" s="8"/>
+    </row>
+    <row r="69" spans="1:3" ht="22.5">
+      <c r="A69" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" s="8"/>
+    </row>
+    <row r="70" spans="1:3" ht="33.75">
+      <c r="A70" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" s="15"/>
+    </row>
+    <row r="71" spans="1:3" ht="45">
+      <c r="A71" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" s="15"/>
+    </row>
+    <row r="72" spans="1:3" ht="33.75">
+      <c r="A72" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" s="20"/>
+    </row>
+    <row r="73" spans="1:3" ht="101.25">
+      <c r="A73" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" s="55" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="101.25">
+      <c r="A74" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C74" s="55" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="45">
+      <c r="A75" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75" s="55" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="22.5">
+      <c r="A76" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" s="11"/>
+    </row>
+    <row r="77" spans="1:3" ht="22.5">
+      <c r="A77" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" s="11"/>
+    </row>
+    <row r="78" spans="1:3" ht="33.75">
+      <c r="A78" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" s="11"/>
+    </row>
+    <row r="79" spans="1:3" ht="33.75">
+      <c r="A79" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" s="11"/>
+    </row>
+    <row r="80" spans="1:3" ht="33.75">
+      <c r="A80" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" s="11"/>
+    </row>
+    <row r="81" spans="1:3" ht="22.5">
+      <c r="A81" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" s="11"/>
+    </row>
+    <row r="82" spans="1:3" ht="33.75">
+      <c r="A82" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82" s="22"/>
+    </row>
+    <row r="83" spans="1:3" ht="33.75">
+      <c r="A83" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" s="20"/>
+    </row>
+    <row r="84" spans="1:3" ht="33.75">
+      <c r="A84" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="22.5">
+      <c r="A85" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" s="55" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="33.75">
+      <c r="A86" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" s="22"/>
+    </row>
+    <row r="87" spans="1:3" ht="22.5">
+      <c r="A87" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" s="22"/>
+    </row>
+    <row r="88" spans="1:3" ht="22.5">
+      <c r="A88" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" s="22"/>
+    </row>
+    <row r="89" spans="1:3" ht="22.5">
+      <c r="A89" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" s="22"/>
+    </row>
+    <row r="90" spans="1:3" ht="33.75">
+      <c r="A90" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C90" s="55" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="33.75">
+      <c r="A91" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91" s="22"/>
+    </row>
+    <row r="92" spans="1:3" ht="33.75">
+      <c r="A92" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B92" s="22"/>
+    </row>
+    <row r="93" spans="1:3" ht="22.5">
+      <c r="A93" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B93" s="22"/>
+    </row>
+    <row r="94" spans="1:3" ht="22.5">
+      <c r="A94" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B94" s="22"/>
+    </row>
+    <row r="95" spans="1:3" ht="22.5">
+      <c r="A95" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B95" s="22"/>
+    </row>
+    <row r="96" spans="1:3" ht="22.5">
+      <c r="A96" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B96" s="22"/>
+    </row>
+    <row r="97" spans="1:2" ht="22.5">
+      <c r="A97" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B97" s="24"/>
+    </row>
+    <row r="98" spans="1:2" ht="22.5">
+      <c r="A98" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B98" s="24"/>
+    </row>
+    <row r="99" spans="1:2" ht="22.5">
+      <c r="A99" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99" s="11"/>
+    </row>
+    <row r="100" spans="1:2" ht="22.5">
+      <c r="A100" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B100" s="22"/>
+    </row>
+    <row r="101" spans="1:2" ht="22.5">
+      <c r="A101" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B101" s="22"/>
+    </row>
+    <row r="102" spans="1:2" ht="22.5">
+      <c r="A102" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B102" s="11"/>
+    </row>
+    <row r="103" spans="1:2" ht="22.5">
+      <c r="A103" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B103" s="11"/>
+    </row>
+    <row r="104" spans="1:2" ht="22.5">
+      <c r="A104" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B104" s="24"/>
+    </row>
+    <row r="105" spans="1:2" ht="22.5">
+      <c r="A105" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B105" s="24"/>
+    </row>
+    <row r="106" spans="1:2" ht="22.5">
+      <c r="A106" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B106" s="24"/>
+    </row>
+    <row r="107" spans="1:2" ht="22.5">
+      <c r="A107" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B107" s="24"/>
+    </row>
+    <row r="108" spans="1:2" ht="22.5">
+      <c r="A108" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B108" s="24"/>
+    </row>
+    <row r="109" spans="1:2" ht="22.5">
+      <c r="A109" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B109" s="24"/>
+    </row>
+    <row r="110" spans="1:2" ht="22.5">
+      <c r="A110" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B110" s="24"/>
+    </row>
+    <row r="111" spans="1:2" ht="22.5">
+      <c r="A111" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B111" s="24"/>
+    </row>
+    <row r="112" spans="1:2" ht="22.5">
+      <c r="A112" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B112" s="24"/>
+    </row>
+    <row r="113" spans="1:3" ht="22.5">
+      <c r="A113" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B113" s="24"/>
+    </row>
+    <row r="114" spans="1:3" ht="22.5">
+      <c r="A114" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B114" s="24"/>
+    </row>
+    <row r="115" spans="1:3" ht="22.5">
+      <c r="A115" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B115" s="24"/>
+    </row>
+    <row r="116" spans="1:3" ht="22.5">
+      <c r="A116" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B116" s="24"/>
+    </row>
+    <row r="117" spans="1:3" ht="22.5">
+      <c r="A117" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B117" s="24"/>
+    </row>
+    <row r="118" spans="1:3" ht="33.75">
+      <c r="A118" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B118" s="24"/>
+    </row>
+    <row r="119" spans="1:3" ht="22.5">
+      <c r="A119" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B119" s="24"/>
+    </row>
+    <row r="120" spans="1:3" ht="22.5">
+      <c r="A120" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B120" s="24"/>
+    </row>
+    <row r="121" spans="1:3" ht="45">
+      <c r="A121" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B121" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C121" s="55" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="33.75">
+      <c r="A122" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B122" s="22"/>
+    </row>
+    <row r="123" spans="1:3" ht="22.5">
+      <c r="A123" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B123" s="22"/>
+    </row>
+    <row r="124" spans="1:3" ht="22.5">
+      <c r="A124" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B124" s="11"/>
+    </row>
+    <row r="125" spans="1:3" ht="22.5">
+      <c r="A125" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B125" s="27"/>
+    </row>
+    <row r="126" spans="1:3" ht="22.5">
+      <c r="A126" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B126" s="27"/>
+    </row>
+    <row r="127" spans="1:3" ht="22.5">
+      <c r="A127" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B127" s="27"/>
+    </row>
+    <row r="128" spans="1:3" ht="22.5">
+      <c r="A128" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B128" s="27"/>
+    </row>
+    <row r="129" spans="1:2" ht="22.5">
+      <c r="A129" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B129" s="27"/>
+    </row>
+    <row r="130" spans="1:2" ht="22.5">
+      <c r="A130" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B130" s="22"/>
+    </row>
+    <row r="131" spans="1:2" ht="22.5">
+      <c r="A131" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B131" s="22"/>
+    </row>
+    <row r="132" spans="1:2" ht="22.5">
+      <c r="A132" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B132" s="27"/>
+    </row>
+    <row r="133" spans="1:2" ht="22.5">
+      <c r="A133" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B133" s="22"/>
+    </row>
+    <row r="134" spans="1:2" ht="22.5">
+      <c r="A134" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B134" s="27"/>
+    </row>
+    <row r="135" spans="1:2" ht="22.5">
+      <c r="A135" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B135" s="9"/>
+    </row>
+    <row r="136" spans="1:2" ht="22.5">
+      <c r="A136" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B136" s="9"/>
+    </row>
+    <row r="137" spans="1:2" ht="22.5">
+      <c r="A137" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B137" s="27"/>
+    </row>
+    <row r="138" spans="1:2" ht="22.5">
+      <c r="A138" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B138" s="27"/>
+    </row>
+    <row r="139" spans="1:2" ht="22.5">
+      <c r="A139" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="B139" s="27"/>
+    </row>
+    <row r="140" spans="1:2" ht="22.5">
+      <c r="A140" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="B140" s="27"/>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B141" s="22"/>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B142" s="22"/>
+    </row>
+    <row r="143" spans="1:2" ht="22.5">
+      <c r="A143" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="B143" s="27"/>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B144" s="9"/>
+    </row>
+    <row r="145" spans="1:2" ht="22.5">
+      <c r="A145" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B145" s="9"/>
+    </row>
+    <row r="146" spans="1:2" ht="22.5">
+      <c r="A146" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B146" s="9"/>
+    </row>
+    <row r="147" spans="1:2" ht="22.5">
+      <c r="A147" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B147" s="28"/>
+    </row>
+    <row r="148" spans="1:2" ht="22.5">
+      <c r="A148" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B148" s="28"/>
+    </row>
+    <row r="149" spans="1:2" ht="22.5">
+      <c r="A149" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B149" s="28"/>
+    </row>
+    <row r="150" spans="1:2" ht="22.5">
+      <c r="A150" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="B150" s="28"/>
+    </row>
+    <row r="151" spans="1:2" ht="22.5">
+      <c r="A151" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B151" s="28"/>
+    </row>
+    <row r="152" spans="1:2" ht="22.5">
+      <c r="A152" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="B24" s="51"/>
-    </row>
-    <row r="25" spans="1:2" ht="33.75">
-      <c r="A25" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="51"/>
-    </row>
-    <row r="26" spans="1:2" ht="22.5">
-      <c r="A26" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="51"/>
-    </row>
-    <row r="27" spans="1:2" ht="22.5">
-      <c r="A27" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="51"/>
-    </row>
-    <row r="28" spans="1:2" ht="22.5">
-      <c r="A28" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="51"/>
-    </row>
-    <row r="29" spans="1:2" ht="22.5">
-      <c r="A29" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="51"/>
-    </row>
-    <row r="30" spans="1:2" ht="22.5">
-      <c r="A30" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="51"/>
-    </row>
-    <row r="31" spans="1:2" ht="22.5">
-      <c r="A31" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="51"/>
-    </row>
-    <row r="32" spans="1:2" ht="22.5">
-      <c r="A32" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="51"/>
-    </row>
-    <row r="33" spans="1:3" ht="22.5">
-      <c r="A33" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="51"/>
-    </row>
-    <row r="34" spans="1:3" ht="22.5">
-      <c r="A34" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="51"/>
-    </row>
-    <row r="35" spans="1:3" ht="22.5">
-      <c r="A35" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="51"/>
-    </row>
-    <row r="36" spans="1:3" ht="22.5">
-      <c r="A36" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="51"/>
-    </row>
-    <row r="37" spans="1:3" ht="22.5">
-      <c r="A37" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="51"/>
-    </row>
-    <row r="38" spans="1:3" ht="22.5">
-      <c r="A38" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="51"/>
-    </row>
-    <row r="39" spans="1:3" ht="33.75">
-      <c r="A39" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="51"/>
-    </row>
-    <row r="40" spans="1:3" ht="33.75">
-      <c r="A40" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="51"/>
-    </row>
-    <row r="41" spans="1:3" ht="33.75">
-      <c r="A41" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="51"/>
-    </row>
-    <row r="42" spans="1:3" ht="22.5">
-      <c r="A42" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="51"/>
-    </row>
-    <row r="43" spans="1:3" ht="45">
-      <c r="A43" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="51"/>
-    </row>
-    <row r="44" spans="1:3" ht="33.75">
-      <c r="A44" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="50"/>
-    </row>
-    <row r="45" spans="1:3" ht="112.5">
-      <c r="A45" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="50" t="s">
+      <c r="B152" s="28"/>
+    </row>
+    <row r="153" spans="1:2" ht="22.5">
+      <c r="A153" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="C45" s="49" t="s">
+      <c r="B153" s="28"/>
+    </row>
+    <row r="154" spans="1:2" ht="22.5">
+      <c r="A154" s="21" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="45">
-      <c r="A46" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="49" t="s">
+      <c r="B154" s="22"/>
+    </row>
+    <row r="155" spans="1:2" ht="22.5">
+      <c r="A155" s="8" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="33.75">
-      <c r="A47" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="49" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="33.75">
-      <c r="A48" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="51"/>
-    </row>
-    <row r="49" spans="1:3" ht="45">
-      <c r="A49" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" s="49" t="s">
+      <c r="B155" s="9"/>
+    </row>
+    <row r="156" spans="1:2" ht="22.5">
+      <c r="A156" s="8" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="22.5">
-      <c r="A50" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" s="51"/>
-    </row>
-    <row r="51" spans="1:3" ht="22.5">
-      <c r="A51" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="51"/>
-    </row>
-    <row r="52" spans="1:3" ht="33.75">
-      <c r="A52" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="51"/>
-    </row>
-    <row r="53" spans="1:3" ht="33.75">
-      <c r="A53" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="51"/>
-    </row>
-    <row r="54" spans="1:3" ht="33.75">
-      <c r="A54" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" s="51"/>
-    </row>
-    <row r="55" spans="1:3" ht="33.75">
-      <c r="A55" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" s="51"/>
-    </row>
-    <row r="56" spans="1:3" ht="33.75">
-      <c r="A56" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" s="51"/>
-    </row>
-    <row r="57" spans="1:3" ht="33.75">
-      <c r="A57" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" s="51"/>
-    </row>
-    <row r="58" spans="1:3" ht="56.25">
-      <c r="A58" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" s="51"/>
-    </row>
-    <row r="59" spans="1:3" ht="22.5">
-      <c r="A59" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" s="51"/>
-    </row>
-    <row r="60" spans="1:3" ht="22.5">
-      <c r="A60" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="C60" s="49" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="33.75">
-      <c r="A61" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="C61" s="49" t="s">
+      <c r="B156" s="9"/>
+    </row>
+    <row r="157" spans="1:2" ht="22.5">
+      <c r="A157" s="10" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="33.75">
-      <c r="A62" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" s="51"/>
-    </row>
-    <row r="63" spans="1:3" ht="33.75">
-      <c r="A63" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63" s="51"/>
-    </row>
-    <row r="64" spans="1:3" ht="33.75">
-      <c r="A64" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64" s="51"/>
-    </row>
-    <row r="65" spans="1:3" ht="33.75">
-      <c r="A65" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65" s="51"/>
-    </row>
-    <row r="66" spans="1:3" ht="33.75">
-      <c r="A66" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66" s="51"/>
-    </row>
-    <row r="67" spans="1:3" ht="112.5">
-      <c r="A67" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" s="50" t="s">
-        <v>162</v>
-      </c>
-      <c r="C67" s="49" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="33.75">
-      <c r="A68" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68" s="50"/>
-    </row>
-    <row r="69" spans="1:3" ht="22.5">
-      <c r="A69" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69" s="50"/>
-    </row>
-    <row r="70" spans="1:3" ht="33.75">
-      <c r="A70" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70" s="51"/>
-    </row>
-    <row r="71" spans="1:3" ht="45">
-      <c r="A71" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71" s="51"/>
-    </row>
-    <row r="72" spans="1:3" ht="33.75">
-      <c r="A72" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="B72" s="51"/>
-    </row>
-    <row r="73" spans="1:3" ht="112.5">
-      <c r="A73" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73" s="50" t="s">
-        <v>162</v>
-      </c>
-      <c r="C73" s="49" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="112.5">
-      <c r="A74" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="B74" s="50" t="s">
-        <v>162</v>
-      </c>
-      <c r="C74" s="49" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="45">
-      <c r="A75" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="C75" s="49" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="22.5">
-      <c r="A76" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76" s="51"/>
-    </row>
-    <row r="77" spans="1:3" ht="22.5">
-      <c r="A77" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="B77" s="51"/>
-    </row>
-    <row r="78" spans="1:3" ht="33.75">
-      <c r="A78" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="B78" s="51"/>
-    </row>
-    <row r="79" spans="1:3" ht="33.75">
-      <c r="A79" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="B79" s="51"/>
-    </row>
-    <row r="80" spans="1:3" ht="33.75">
-      <c r="A80" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="B80" s="51"/>
-    </row>
-    <row r="81" spans="1:3" ht="22.5">
-      <c r="A81" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="B81" s="51"/>
-    </row>
-    <row r="82" spans="1:3" ht="33.75">
-      <c r="A82" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="B82" s="51"/>
-    </row>
-    <row r="83" spans="1:3" ht="33.75">
-      <c r="A83" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="B83" s="51"/>
-    </row>
-    <row r="84" spans="1:3" ht="33.75">
-      <c r="A84" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="B84" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="C84" s="49" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="22.5">
-      <c r="A85" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="C85" s="49" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="33.75">
-      <c r="A86" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="B86" s="51"/>
-    </row>
-    <row r="87" spans="1:3" ht="22.5">
-      <c r="A87" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="B87" s="51"/>
-    </row>
-    <row r="88" spans="1:3" ht="22.5">
-      <c r="A88" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="B88" s="51"/>
-    </row>
-    <row r="89" spans="1:3" ht="22.5">
-      <c r="A89" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="B89" s="51"/>
-    </row>
-    <row r="90" spans="1:3" ht="33.75">
-      <c r="A90" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="B90" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="C90" s="49" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="33.75">
-      <c r="A91" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="B91" s="51"/>
-    </row>
-    <row r="92" spans="1:3" ht="33.75">
-      <c r="A92" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="B92" s="51"/>
-    </row>
-    <row r="93" spans="1:3" ht="22.5">
-      <c r="A93" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="B93" s="51"/>
-    </row>
-    <row r="94" spans="1:3" ht="22.5">
-      <c r="A94" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="B94" s="51"/>
-    </row>
-    <row r="95" spans="1:3" ht="22.5">
-      <c r="A95" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="B95" s="51"/>
-    </row>
-    <row r="96" spans="1:3" ht="22.5">
-      <c r="A96" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="B96" s="51"/>
-    </row>
-    <row r="97" spans="1:2" ht="22.5">
-      <c r="A97" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="B97" s="51"/>
-    </row>
-    <row r="98" spans="1:2" ht="22.5">
-      <c r="A98" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="B98" s="51"/>
-    </row>
-    <row r="99" spans="1:2" ht="22.5">
-      <c r="A99" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="B99" s="51"/>
-    </row>
-    <row r="100" spans="1:2" ht="22.5">
-      <c r="A100" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="B100" s="51"/>
-    </row>
-    <row r="101" spans="1:2" ht="22.5">
-      <c r="A101" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="B101" s="51"/>
-    </row>
-    <row r="102" spans="1:2" ht="22.5">
-      <c r="A102" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="B102" s="51"/>
-    </row>
-    <row r="103" spans="1:2" ht="22.5">
-      <c r="A103" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="B103" s="51"/>
-    </row>
-    <row r="104" spans="1:2" ht="22.5">
-      <c r="A104" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="B104" s="51"/>
-    </row>
-    <row r="105" spans="1:2" ht="22.5">
-      <c r="A105" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="B105" s="51"/>
-    </row>
-    <row r="106" spans="1:2" ht="22.5">
-      <c r="A106" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="B106" s="51"/>
-    </row>
-    <row r="107" spans="1:2" ht="22.5">
-      <c r="A107" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="B107" s="51"/>
-    </row>
-    <row r="108" spans="1:2" ht="22.5">
-      <c r="A108" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="B108" s="51"/>
-    </row>
-    <row r="109" spans="1:2" ht="22.5">
-      <c r="A109" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="B109" s="51"/>
-    </row>
-    <row r="110" spans="1:2" ht="22.5">
-      <c r="A110" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="B110" s="51"/>
-    </row>
-    <row r="111" spans="1:2" ht="22.5">
-      <c r="A111" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="B111" s="51"/>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="B112" s="51"/>
-    </row>
-    <row r="113" spans="1:3" ht="22.5">
-      <c r="A113" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="B113" s="51"/>
-    </row>
-    <row r="114" spans="1:3" ht="22.5">
-      <c r="A114" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="B114" s="51"/>
-    </row>
-    <row r="115" spans="1:3" ht="22.5">
-      <c r="A115" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="B115" s="51"/>
-    </row>
-    <row r="116" spans="1:3" ht="22.5">
-      <c r="A116" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="B116" s="51"/>
-    </row>
-    <row r="117" spans="1:3" ht="22.5">
-      <c r="A117" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="B117" s="51"/>
-    </row>
-    <row r="118" spans="1:3" ht="33.75">
-      <c r="A118" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="B118" s="51"/>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="50" t="s">
-        <v>171</v>
-      </c>
-      <c r="B119" s="51"/>
-    </row>
-    <row r="120" spans="1:3" ht="22.5">
-      <c r="A120" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="B120" s="51"/>
-    </row>
-    <row r="121" spans="1:3" ht="45">
-      <c r="A121" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="B121" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="C121" s="49" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="33.75">
-      <c r="A122" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="B122" s="51"/>
-    </row>
-    <row r="123" spans="1:3" ht="22.5">
-      <c r="A123" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="B123" s="51"/>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="B124" s="51"/>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="B125" s="50"/>
-    </row>
-    <row r="126" spans="1:3" ht="22.5">
-      <c r="A126" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="B126" s="50"/>
-    </row>
-    <row r="127" spans="1:3" ht="22.5">
-      <c r="A127" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="B127" s="50"/>
-    </row>
-    <row r="128" spans="1:3" ht="22.5">
-      <c r="A128" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="B128" s="50"/>
-    </row>
-    <row r="129" spans="1:2" ht="22.5">
-      <c r="A129" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="B129" s="50"/>
-    </row>
-    <row r="130" spans="1:2" ht="22.5">
-      <c r="A130" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="B130" s="51"/>
-    </row>
-    <row r="131" spans="1:2" ht="22.5">
-      <c r="A131" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="B131" s="51"/>
-    </row>
-    <row r="132" spans="1:2" ht="22.5">
-      <c r="A132" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="B132" s="50"/>
-    </row>
-    <row r="133" spans="1:2" ht="22.5">
-      <c r="A133" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="B133" s="51"/>
-    </row>
-    <row r="134" spans="1:2" ht="22.5">
-      <c r="A134" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="B134" s="50"/>
-    </row>
-    <row r="135" spans="1:2" ht="22.5">
-      <c r="A135" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="B135" s="51"/>
-    </row>
-    <row r="136" spans="1:2" ht="22.5">
-      <c r="A136" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="B136" s="51"/>
-    </row>
-    <row r="137" spans="1:2" ht="22.5">
-      <c r="A137" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="B137" s="50"/>
-    </row>
-    <row r="138" spans="1:2" ht="22.5">
-      <c r="A138" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="B138" s="50"/>
-    </row>
-    <row r="139" spans="1:2" ht="22.5">
-      <c r="A139" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="B139" s="50"/>
-    </row>
-    <row r="140" spans="1:2" ht="22.5">
-      <c r="A140" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="B140" s="50"/>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="B141" s="51"/>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="B142" s="51"/>
-    </row>
-    <row r="143" spans="1:2" ht="22.5">
-      <c r="A143" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="B143" s="50"/>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="B144" s="51"/>
-    </row>
-    <row r="145" spans="1:2" ht="22.5">
-      <c r="A145" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="B145" s="51"/>
-    </row>
-    <row r="146" spans="1:2" ht="22.5">
-      <c r="A146" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="B146" s="51"/>
-    </row>
-    <row r="147" spans="1:2" ht="22.5">
-      <c r="A147" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="B147" s="50"/>
-    </row>
-    <row r="148" spans="1:2" ht="22.5">
-      <c r="A148" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="B148" s="50"/>
-    </row>
-    <row r="149" spans="1:2" ht="22.5">
-      <c r="A149" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="B149" s="50"/>
-    </row>
-    <row r="150" spans="1:2" ht="22.5">
-      <c r="A150" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="B150" s="50"/>
-    </row>
-    <row r="151" spans="1:2" ht="22.5">
-      <c r="A151" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="B151" s="50"/>
-    </row>
-    <row r="152" spans="1:2" ht="22.5">
-      <c r="A152" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="B152" s="50"/>
-    </row>
-    <row r="153" spans="1:2" ht="22.5">
-      <c r="A153" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="B153" s="50"/>
-    </row>
-    <row r="154" spans="1:2" ht="22.5">
-      <c r="A154" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="B154" s="51"/>
-    </row>
-    <row r="155" spans="1:2" ht="22.5">
-      <c r="A155" s="50" t="s">
-        <v>158</v>
-      </c>
-      <c r="B155" s="51"/>
-    </row>
-    <row r="156" spans="1:2" ht="22.5">
-      <c r="A156" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="B156" s="51"/>
-    </row>
-    <row r="157" spans="1:2" ht="22.5">
-      <c r="A157" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="B157" s="51"/>
+      <c r="B157" s="11"/>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="15"/>
-      <c r="B158" s="16"/>
+      <c r="A158" s="17"/>
+      <c r="B158" s="18"/>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="15"/>
-      <c r="B159" s="16"/>
+      <c r="A159" s="17"/>
+      <c r="B159" s="18"/>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="23"/>
-      <c r="B160" s="25"/>
+      <c r="A160" s="29"/>
+      <c r="B160" s="31"/>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="24"/>
-      <c r="B161" s="25"/>
+      <c r="A161" s="30"/>
+      <c r="B161" s="31"/>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="24"/>
-      <c r="B162" s="25"/>
+      <c r="A162" s="30"/>
+      <c r="B162" s="31"/>
     </row>
     <row r="163" spans="1:2">
-      <c r="A163" s="24"/>
-      <c r="B163" s="25"/>
+      <c r="A163" s="30"/>
+      <c r="B163" s="31"/>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="24"/>
-      <c r="B164" s="25"/>
+      <c r="A164" s="30"/>
+      <c r="B164" s="31"/>
     </row>
     <row r="165" spans="1:2">
-      <c r="A165" s="24"/>
-      <c r="B165" s="25"/>
+      <c r="A165" s="30"/>
+      <c r="B165" s="31"/>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="24"/>
-      <c r="B166" s="25"/>
+      <c r="A166" s="30"/>
+      <c r="B166" s="31"/>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="23"/>
-      <c r="B167" s="25"/>
+      <c r="A167" s="29"/>
+      <c r="B167" s="31"/>
     </row>
     <row r="168" spans="1:2">
-      <c r="A168" s="23"/>
-      <c r="B168" s="25"/>
+      <c r="A168" s="29"/>
+      <c r="B168" s="31"/>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" s="23"/>
-      <c r="B169" s="25"/>
+      <c r="A169" s="29"/>
+      <c r="B169" s="31"/>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="23"/>
-      <c r="B170" s="25"/>
+      <c r="A170" s="29"/>
+      <c r="B170" s="31"/>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="23"/>
-      <c r="B171" s="25"/>
+      <c r="A171" s="29"/>
+      <c r="B171" s="31"/>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" s="23"/>
-      <c r="B172" s="25"/>
+      <c r="A172" s="29"/>
+      <c r="B172" s="31"/>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="23"/>
-      <c r="B173" s="25"/>
+      <c r="A173" s="29"/>
+      <c r="B173" s="31"/>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="23"/>
-      <c r="B174" s="25"/>
+      <c r="A174" s="29"/>
+      <c r="B174" s="31"/>
     </row>
     <row r="175" spans="1:2">
-      <c r="A175" s="23"/>
-      <c r="B175" s="25"/>
+      <c r="A175" s="29"/>
+      <c r="B175" s="31"/>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="23"/>
-      <c r="B176" s="25"/>
+      <c r="A176" s="29"/>
+      <c r="B176" s="31"/>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="23"/>
-      <c r="B177" s="25"/>
+      <c r="A177" s="29"/>
+      <c r="B177" s="31"/>
     </row>
     <row r="178" spans="1:2">
-      <c r="A178" s="23"/>
-      <c r="B178" s="25"/>
+      <c r="A178" s="29"/>
+      <c r="B178" s="31"/>
     </row>
     <row r="179" spans="1:2">
-      <c r="A179" s="23"/>
-      <c r="B179" s="25"/>
+      <c r="A179" s="29"/>
+      <c r="B179" s="31"/>
     </row>
     <row r="180" spans="1:2">
-      <c r="A180" s="23"/>
-      <c r="B180" s="25"/>
+      <c r="A180" s="29"/>
+      <c r="B180" s="31"/>
     </row>
     <row r="181" spans="1:2">
-      <c r="A181" s="23"/>
-      <c r="B181" s="25"/>
+      <c r="A181" s="29"/>
+      <c r="B181" s="31"/>
     </row>
     <row r="182" spans="1:2">
-      <c r="A182" s="23"/>
-      <c r="B182" s="25"/>
+      <c r="A182" s="29"/>
+      <c r="B182" s="31"/>
     </row>
     <row r="183" spans="1:2">
-      <c r="A183" s="23"/>
-      <c r="B183" s="25"/>
+      <c r="A183" s="29"/>
+      <c r="B183" s="31"/>
     </row>
     <row r="184" spans="1:2">
-      <c r="A184" s="23"/>
-      <c r="B184" s="25"/>
+      <c r="A184" s="29"/>
+      <c r="B184" s="31"/>
     </row>
     <row r="185" spans="1:2">
-      <c r="A185" s="23"/>
-      <c r="B185" s="25"/>
+      <c r="A185" s="29"/>
+      <c r="B185" s="31"/>
     </row>
     <row r="186" spans="1:2">
-      <c r="A186" s="23"/>
-      <c r="B186" s="25"/>
+      <c r="A186" s="29"/>
+      <c r="B186" s="31"/>
     </row>
     <row r="187" spans="1:2">
-      <c r="A187" s="23"/>
-      <c r="B187" s="25"/>
+      <c r="A187" s="29"/>
+      <c r="B187" s="31"/>
     </row>
     <row r="188" spans="1:2">
-      <c r="A188" s="23"/>
-      <c r="B188" s="25"/>
+      <c r="A188" s="29"/>
+      <c r="B188" s="31"/>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="23"/>
-      <c r="B189" s="25"/>
+      <c r="A189" s="29"/>
+      <c r="B189" s="31"/>
     </row>
     <row r="190" spans="1:2">
-      <c r="A190" s="23"/>
-      <c r="B190" s="25"/>
+      <c r="A190" s="29"/>
+      <c r="B190" s="31"/>
     </row>
     <row r="191" spans="1:2">
-      <c r="A191" s="24"/>
-      <c r="B191" s="25"/>
+      <c r="A191" s="30"/>
+      <c r="B191" s="31"/>
     </row>
     <row r="192" spans="1:2">
-      <c r="A192" s="24"/>
-      <c r="B192" s="25"/>
+      <c r="A192" s="30"/>
+      <c r="B192" s="31"/>
     </row>
     <row r="193" spans="1:2">
-      <c r="A193" s="24"/>
-      <c r="B193" s="25"/>
+      <c r="A193" s="30"/>
+      <c r="B193" s="31"/>
     </row>
     <row r="194" spans="1:2">
-      <c r="A194" s="24"/>
-      <c r="B194" s="25"/>
+      <c r="A194" s="30"/>
+      <c r="B194" s="31"/>
     </row>
     <row r="195" spans="1:2">
-      <c r="A195" s="24"/>
-      <c r="B195" s="25"/>
+      <c r="A195" s="30"/>
+      <c r="B195" s="31"/>
     </row>
     <row r="196" spans="1:2">
-      <c r="A196" s="4"/>
-      <c r="B196" s="3"/>
+      <c r="A196" s="5"/>
+      <c r="B196" s="4"/>
     </row>
     <row r="197" spans="1:2">
-      <c r="A197" s="4"/>
-      <c r="B197" s="3"/>
+      <c r="A197" s="5"/>
+      <c r="B197" s="4"/>
     </row>
     <row r="198" spans="1:2">
-      <c r="A198" s="4"/>
-      <c r="B198" s="3"/>
+      <c r="A198" s="5"/>
+      <c r="B198" s="4"/>
     </row>
     <row r="199" spans="1:2">
-      <c r="A199" s="4"/>
-      <c r="B199" s="3"/>
+      <c r="A199" s="5"/>
+      <c r="B199" s="4"/>
     </row>
     <row r="200" spans="1:2">
-      <c r="A200" s="4"/>
-      <c r="B200" s="3"/>
+      <c r="A200" s="5"/>
+      <c r="B200" s="4"/>
     </row>
     <row r="201" spans="1:2">
-      <c r="A201" s="4"/>
-      <c r="B201" s="3"/>
+      <c r="A201" s="5"/>
+      <c r="B201" s="4"/>
     </row>
     <row r="202" spans="1:2">
-      <c r="A202" s="4"/>
-      <c r="B202" s="3"/>
+      <c r="A202" s="5"/>
+      <c r="B202" s="4"/>
     </row>
     <row r="203" spans="1:2">
-      <c r="A203" s="4"/>
-      <c r="B203" s="3"/>
+      <c r="A203" s="5"/>
+      <c r="B203" s="4"/>
     </row>
     <row r="204" spans="1:2">
-      <c r="A204" s="4"/>
-      <c r="B204" s="3"/>
+      <c r="A204" s="5"/>
+      <c r="B204" s="4"/>
     </row>
     <row r="205" spans="1:2">
-      <c r="A205" s="4"/>
-      <c r="B205" s="3"/>
+      <c r="A205" s="5"/>
+      <c r="B205" s="4"/>
     </row>
     <row r="206" spans="1:2">
-      <c r="A206" s="4"/>
-      <c r="B206" s="3"/>
+      <c r="A206" s="5"/>
+      <c r="B206" s="4"/>
     </row>
     <row r="207" spans="1:2">
-      <c r="A207" s="4"/>
-      <c r="B207" s="3"/>
+      <c r="A207" s="5"/>
+      <c r="B207" s="4"/>
     </row>
     <row r="208" spans="1:2">
-      <c r="A208" s="4"/>
-      <c r="B208" s="3"/>
+      <c r="A208" s="5"/>
+      <c r="B208" s="4"/>
     </row>
     <row r="209" spans="1:2">
-      <c r="A209" s="4"/>
-      <c r="B209" s="3"/>
+      <c r="A209" s="5"/>
+      <c r="B209" s="4"/>
     </row>
     <row r="210" spans="1:2">
-      <c r="A210" s="4"/>
-      <c r="B210" s="3"/>
+      <c r="A210" s="5"/>
+      <c r="B210" s="4"/>
     </row>
     <row r="211" spans="1:2">
-      <c r="A211" s="4"/>
-      <c r="B211" s="3"/>
+      <c r="A211" s="5"/>
+      <c r="B211" s="4"/>
     </row>
     <row r="212" spans="1:2">
-      <c r="A212" s="4"/>
-      <c r="B212" s="3"/>
+      <c r="A212" s="5"/>
+      <c r="B212" s="4"/>
     </row>
     <row r="213" spans="1:2">
-      <c r="A213" s="4"/>
-      <c r="B213" s="3"/>
+      <c r="A213" s="5"/>
+      <c r="B213" s="4"/>
     </row>
     <row r="214" spans="1:2">
-      <c r="A214" s="4"/>
-      <c r="B214" s="3"/>
+      <c r="A214" s="5"/>
+      <c r="B214" s="4"/>
     </row>
     <row r="215" spans="1:2">
-      <c r="A215" s="4"/>
-      <c r="B215" s="3"/>
+      <c r="A215" s="5"/>
+      <c r="B215" s="4"/>
     </row>
     <row r="216" spans="1:2">
-      <c r="A216" s="4"/>
-      <c r="B216" s="3"/>
+      <c r="A216" s="5"/>
+      <c r="B216" s="4"/>
     </row>
     <row r="217" spans="1:2">
-      <c r="A217" s="4"/>
-      <c r="B217" s="3"/>
+      <c r="A217" s="5"/>
+      <c r="B217" s="4"/>
     </row>
     <row r="218" spans="1:2">
-      <c r="A218" s="4"/>
-      <c r="B218" s="3"/>
+      <c r="A218" s="5"/>
+      <c r="B218" s="4"/>
     </row>
     <row r="219" spans="1:2">
-      <c r="A219" s="4"/>
-      <c r="B219" s="3"/>
+      <c r="A219" s="5"/>
+      <c r="B219" s="4"/>
     </row>
     <row r="220" spans="1:2">
-      <c r="A220" s="4"/>
-      <c r="B220" s="3"/>
+      <c r="A220" s="5"/>
+      <c r="B220" s="4"/>
     </row>
     <row r="221" spans="1:2">
-      <c r="A221" s="4"/>
-      <c r="B221" s="3"/>
+      <c r="A221" s="5"/>
+      <c r="B221" s="4"/>
     </row>
     <row r="222" spans="1:2">
-      <c r="A222" s="4"/>
-      <c r="B222" s="3"/>
+      <c r="A222" s="5"/>
+      <c r="B222" s="4"/>
     </row>
     <row r="223" spans="1:2">
-      <c r="A223" s="4"/>
-      <c r="B223" s="3"/>
+      <c r="A223" s="5"/>
+      <c r="B223" s="4"/>
     </row>
     <row r="224" spans="1:2">
-      <c r="A224" s="4"/>
-      <c r="B224" s="3"/>
+      <c r="A224" s="5"/>
+      <c r="B224" s="4"/>
     </row>
     <row r="225" spans="1:2">
-      <c r="A225" s="4"/>
-      <c r="B225" s="3"/>
+      <c r="A225" s="5"/>
+      <c r="B225" s="4"/>
     </row>
     <row r="226" spans="1:2">
-      <c r="A226" s="4"/>
-      <c r="B226" s="3"/>
+      <c r="A226" s="5"/>
+      <c r="B226" s="4"/>
     </row>
     <row r="227" spans="1:2">
-      <c r="A227" s="26"/>
-      <c r="B227" s="28"/>
+      <c r="A227" s="32"/>
+      <c r="B227" s="34"/>
     </row>
     <row r="228" spans="1:2">
-      <c r="A228" s="27"/>
-      <c r="B228" s="28"/>
+      <c r="A228" s="33"/>
+      <c r="B228" s="34"/>
     </row>
     <row r="229" spans="1:2">
-      <c r="A229" s="26"/>
-      <c r="B229" s="28"/>
+      <c r="A229" s="32"/>
+      <c r="B229" s="34"/>
     </row>
     <row r="230" spans="1:2">
-      <c r="A230" s="4"/>
-      <c r="B230" s="3"/>
+      <c r="A230" s="5"/>
+      <c r="B230" s="4"/>
     </row>
     <row r="231" spans="1:2">
-      <c r="A231" s="4"/>
-      <c r="B231" s="3"/>
+      <c r="A231" s="5"/>
+      <c r="B231" s="4"/>
     </row>
     <row r="232" spans="1:2">
-      <c r="A232" s="4"/>
-      <c r="B232" s="3"/>
+      <c r="A232" s="5"/>
+      <c r="B232" s="4"/>
     </row>
     <row r="233" spans="1:2">
-      <c r="A233" s="4"/>
-      <c r="B233" s="3"/>
+      <c r="A233" s="5"/>
+      <c r="B233" s="4"/>
     </row>
     <row r="234" spans="1:2">
-      <c r="A234" s="4"/>
-      <c r="B234" s="3"/>
+      <c r="A234" s="5"/>
+      <c r="B234" s="4"/>
     </row>
     <row r="235" spans="1:2">
-      <c r="A235" s="4"/>
-      <c r="B235" s="3"/>
+      <c r="A235" s="5"/>
+      <c r="B235" s="4"/>
     </row>
     <row r="236" spans="1:2">
-      <c r="A236" s="4"/>
-      <c r="B236" s="3"/>
+      <c r="A236" s="5"/>
+      <c r="B236" s="4"/>
     </row>
     <row r="237" spans="1:2">
-      <c r="A237" s="4"/>
-      <c r="B237" s="3"/>
+      <c r="A237" s="5"/>
+      <c r="B237" s="4"/>
     </row>
     <row r="238" spans="1:2">
-      <c r="A238" s="4"/>
-      <c r="B238" s="3"/>
+      <c r="A238" s="5"/>
+      <c r="B238" s="4"/>
     </row>
     <row r="239" spans="1:2">
-      <c r="A239" s="4"/>
-      <c r="B239" s="3"/>
+      <c r="A239" s="5"/>
+      <c r="B239" s="4"/>
     </row>
     <row r="240" spans="1:2">
-      <c r="A240" s="4"/>
-      <c r="B240" s="3"/>
+      <c r="A240" s="5"/>
+      <c r="B240" s="4"/>
     </row>
     <row r="241" spans="1:2">
-      <c r="A241" s="4"/>
-      <c r="B241" s="3"/>
+      <c r="A241" s="5"/>
+      <c r="B241" s="4"/>
     </row>
     <row r="242" spans="1:2">
-      <c r="A242" s="4"/>
-      <c r="B242" s="3"/>
+      <c r="A242" s="5"/>
+      <c r="B242" s="4"/>
     </row>
     <row r="243" spans="1:2">
-      <c r="A243" s="4"/>
-      <c r="B243" s="3"/>
+      <c r="A243" s="5"/>
+      <c r="B243" s="4"/>
     </row>
     <row r="244" spans="1:2">
-      <c r="A244" s="4"/>
-      <c r="B244" s="3"/>
+      <c r="A244" s="5"/>
+      <c r="B244" s="4"/>
     </row>
     <row r="245" spans="1:2">
-      <c r="A245" s="4"/>
-      <c r="B245" s="3"/>
+      <c r="A245" s="5"/>
+      <c r="B245" s="4"/>
     </row>
     <row r="246" spans="1:2">
-      <c r="A246" s="4"/>
-      <c r="B246" s="3"/>
+      <c r="A246" s="5"/>
+      <c r="B246" s="4"/>
     </row>
     <row r="247" spans="1:2">
-      <c r="A247" s="4"/>
-      <c r="B247" s="3"/>
+      <c r="A247" s="5"/>
+      <c r="B247" s="4"/>
     </row>
     <row r="248" spans="1:2">
-      <c r="A248" s="4"/>
-      <c r="B248" s="3"/>
+      <c r="A248" s="5"/>
+      <c r="B248" s="4"/>
     </row>
     <row r="249" spans="1:2">
-      <c r="A249" s="4"/>
-      <c r="B249" s="3"/>
+      <c r="A249" s="5"/>
+      <c r="B249" s="4"/>
     </row>
     <row r="250" spans="1:2">
-      <c r="A250" s="4"/>
-      <c r="B250" s="3"/>
+      <c r="A250" s="5"/>
+      <c r="B250" s="4"/>
     </row>
     <row r="251" spans="1:2">
-      <c r="A251" s="4"/>
-      <c r="B251" s="3"/>
+      <c r="A251" s="5"/>
+      <c r="B251" s="4"/>
     </row>
     <row r="252" spans="1:2">
-      <c r="A252" s="4"/>
-      <c r="B252" s="3"/>
+      <c r="A252" s="5"/>
+      <c r="B252" s="4"/>
     </row>
     <row r="253" spans="1:2">
-      <c r="A253" s="4"/>
-      <c r="B253" s="3"/>
+      <c r="A253" s="5"/>
+      <c r="B253" s="4"/>
     </row>
     <row r="254" spans="1:2">
-      <c r="A254" s="4"/>
-      <c r="B254" s="3"/>
+      <c r="A254" s="5"/>
+      <c r="B254" s="4"/>
     </row>
     <row r="255" spans="1:2">
-      <c r="A255" s="4"/>
-      <c r="B255" s="3"/>
+      <c r="A255" s="5"/>
+      <c r="B255" s="4"/>
     </row>
     <row r="256" spans="1:2">
-      <c r="A256" s="4"/>
-      <c r="B256" s="3"/>
+      <c r="A256" s="5"/>
+      <c r="B256" s="4"/>
     </row>
     <row r="257" spans="1:2">
-      <c r="A257" s="4"/>
-      <c r="B257" s="3"/>
+      <c r="A257" s="5"/>
+      <c r="B257" s="4"/>
     </row>
     <row r="258" spans="1:2">
-      <c r="A258" s="4"/>
-      <c r="B258" s="3"/>
+      <c r="A258" s="5"/>
+      <c r="B258" s="4"/>
     </row>
     <row r="259" spans="1:2">
-      <c r="A259" s="4"/>
-      <c r="B259" s="3"/>
+      <c r="A259" s="5"/>
+      <c r="B259" s="4"/>
     </row>
     <row r="260" spans="1:2">
-      <c r="A260" s="4"/>
-      <c r="B260" s="3"/>
+      <c r="A260" s="5"/>
+      <c r="B260" s="4"/>
     </row>
     <row r="261" spans="1:2">
-      <c r="A261" s="2"/>
-      <c r="B261" s="3"/>
+      <c r="A261" s="3"/>
+      <c r="B261" s="4"/>
     </row>
     <row r="262" spans="1:2">
-      <c r="A262" s="4"/>
-      <c r="B262" s="3"/>
+      <c r="A262" s="5"/>
+      <c r="B262" s="4"/>
     </row>
     <row r="263" spans="1:2">
-      <c r="A263" s="4"/>
-      <c r="B263" s="3"/>
+      <c r="A263" s="5"/>
+      <c r="B263" s="4"/>
     </row>
     <row r="264" spans="1:2">
-      <c r="A264" s="4"/>
-      <c r="B264" s="3"/>
+      <c r="A264" s="5"/>
+      <c r="B264" s="4"/>
     </row>
     <row r="265" spans="1:2">
-      <c r="A265" s="4"/>
-      <c r="B265" s="3"/>
+      <c r="A265" s="5"/>
+      <c r="B265" s="4"/>
     </row>
     <row r="266" spans="1:2">
-      <c r="A266" s="4"/>
-      <c r="B266" s="3"/>
+      <c r="A266" s="5"/>
+      <c r="B266" s="4"/>
     </row>
     <row r="267" spans="1:2">
-      <c r="A267" s="22"/>
-      <c r="B267" s="29"/>
+      <c r="A267" s="28"/>
+      <c r="B267" s="35"/>
     </row>
     <row r="268" spans="1:2">
-      <c r="A268" s="22"/>
-      <c r="B268" s="29"/>
+      <c r="A268" s="28"/>
+      <c r="B268" s="35"/>
     </row>
     <row r="269" spans="1:2">
-      <c r="A269" s="22"/>
-      <c r="B269" s="29"/>
+      <c r="A269" s="28"/>
+      <c r="B269" s="35"/>
     </row>
     <row r="270" spans="1:2">
-      <c r="A270" s="22"/>
-      <c r="B270" s="29"/>
+      <c r="A270" s="28"/>
+      <c r="B270" s="35"/>
     </row>
     <row r="271" spans="1:2">
-      <c r="A271" s="26"/>
-      <c r="B271" s="28"/>
+      <c r="A271" s="32"/>
+      <c r="B271" s="34"/>
     </row>
     <row r="272" spans="1:2">
-      <c r="A272" s="26"/>
-      <c r="B272" s="28"/>
+      <c r="A272" s="32"/>
+      <c r="B272" s="34"/>
     </row>
     <row r="273" spans="1:2">
-      <c r="A273" s="26"/>
-      <c r="B273" s="28"/>
+      <c r="A273" s="32"/>
+      <c r="B273" s="34"/>
     </row>
     <row r="274" spans="1:2">
-      <c r="A274" s="26"/>
-      <c r="B274" s="28"/>
+      <c r="A274" s="32"/>
+      <c r="B274" s="34"/>
     </row>
     <row r="275" spans="1:2">
-      <c r="A275" s="26"/>
-      <c r="B275" s="28"/>
+      <c r="A275" s="32"/>
+      <c r="B275" s="34"/>
     </row>
     <row r="276" spans="1:2">
-      <c r="A276" s="26"/>
-      <c r="B276" s="28"/>
+      <c r="A276" s="32"/>
+      <c r="B276" s="34"/>
     </row>
     <row r="277" spans="1:2">
-      <c r="A277" s="26"/>
-      <c r="B277" s="28"/>
+      <c r="A277" s="32"/>
+      <c r="B277" s="34"/>
     </row>
     <row r="278" spans="1:2">
-      <c r="A278" s="26"/>
-      <c r="B278" s="28"/>
+      <c r="A278" s="32"/>
+      <c r="B278" s="34"/>
     </row>
     <row r="279" spans="1:2">
-      <c r="A279" s="26"/>
-      <c r="B279" s="28"/>
+      <c r="A279" s="32"/>
+      <c r="B279" s="34"/>
     </row>
     <row r="280" spans="1:2">
-      <c r="A280" s="26"/>
-      <c r="B280" s="28"/>
+      <c r="A280" s="32"/>
+      <c r="B280" s="34"/>
     </row>
     <row r="281" spans="1:2">
-      <c r="A281" s="26"/>
-      <c r="B281" s="28"/>
+      <c r="A281" s="32"/>
+      <c r="B281" s="34"/>
     </row>
     <row r="282" spans="1:2">
-      <c r="A282" s="26"/>
-      <c r="B282" s="28"/>
+      <c r="A282" s="32"/>
+      <c r="B282" s="34"/>
     </row>
     <row r="283" spans="1:2">
-      <c r="A283" s="26"/>
-      <c r="B283" s="28"/>
+      <c r="A283" s="32"/>
+      <c r="B283" s="34"/>
     </row>
     <row r="284" spans="1:2">
-      <c r="A284" s="26"/>
-      <c r="B284" s="28"/>
+      <c r="A284" s="32"/>
+      <c r="B284" s="34"/>
     </row>
     <row r="285" spans="1:2">
-      <c r="A285" s="26"/>
-      <c r="B285" s="28"/>
+      <c r="A285" s="32"/>
+      <c r="B285" s="34"/>
     </row>
     <row r="286" spans="1:2">
-      <c r="A286" s="26"/>
-      <c r="B286" s="28"/>
+      <c r="A286" s="32"/>
+      <c r="B286" s="34"/>
     </row>
     <row r="287" spans="1:2">
-      <c r="A287" s="26"/>
-      <c r="B287" s="28"/>
+      <c r="A287" s="32"/>
+      <c r="B287" s="34"/>
     </row>
     <row r="288" spans="1:2">
-      <c r="A288" s="26"/>
-      <c r="B288" s="28"/>
+      <c r="A288" s="32"/>
+      <c r="B288" s="34"/>
     </row>
     <row r="289" spans="1:2">
-      <c r="A289" s="26"/>
-      <c r="B289" s="28"/>
+      <c r="A289" s="32"/>
+      <c r="B289" s="34"/>
     </row>
     <row r="290" spans="1:2">
-      <c r="A290" s="26"/>
-      <c r="B290" s="28"/>
+      <c r="A290" s="32"/>
+      <c r="B290" s="34"/>
     </row>
     <row r="291" spans="1:2">
-      <c r="A291" s="26"/>
-      <c r="B291" s="28"/>
+      <c r="A291" s="32"/>
+      <c r="B291" s="34"/>
     </row>
     <row r="292" spans="1:2">
-      <c r="A292" s="30"/>
-      <c r="B292" s="31"/>
+      <c r="A292" s="36"/>
+      <c r="B292" s="37"/>
     </row>
     <row r="293" spans="1:2">
-      <c r="A293" s="30"/>
-      <c r="B293" s="31"/>
+      <c r="A293" s="36"/>
+      <c r="B293" s="37"/>
     </row>
     <row r="294" spans="1:2">
-      <c r="A294" s="30"/>
-      <c r="B294" s="31"/>
+      <c r="A294" s="36"/>
+      <c r="B294" s="37"/>
     </row>
     <row r="295" spans="1:2">
-      <c r="A295" s="30"/>
-      <c r="B295" s="31"/>
+      <c r="A295" s="36"/>
+      <c r="B295" s="37"/>
     </row>
     <row r="296" spans="1:2">
-      <c r="A296" s="30"/>
-      <c r="B296" s="31"/>
+      <c r="A296" s="36"/>
+      <c r="B296" s="37"/>
     </row>
     <row r="297" spans="1:2">
-      <c r="A297" s="30"/>
-      <c r="B297" s="31"/>
+      <c r="A297" s="36"/>
+      <c r="B297" s="37"/>
     </row>
     <row r="298" spans="1:2">
-      <c r="A298" s="30"/>
-      <c r="B298" s="31"/>
+      <c r="A298" s="36"/>
+      <c r="B298" s="37"/>
     </row>
     <row r="299" spans="1:2">
-      <c r="A299" s="30"/>
-      <c r="B299" s="31"/>
+      <c r="A299" s="36"/>
+      <c r="B299" s="37"/>
     </row>
     <row r="300" spans="1:2">
-      <c r="A300" s="30"/>
-      <c r="B300" s="31"/>
+      <c r="A300" s="36"/>
+      <c r="B300" s="37"/>
     </row>
     <row r="301" spans="1:2">
-      <c r="A301" s="30"/>
-      <c r="B301" s="31"/>
+      <c r="A301" s="36"/>
+      <c r="B301" s="37"/>
     </row>
     <row r="302" spans="1:2">
-      <c r="A302" s="30"/>
-      <c r="B302" s="31"/>
+      <c r="A302" s="36"/>
+      <c r="B302" s="37"/>
     </row>
     <row r="303" spans="1:2">
-      <c r="A303" s="30"/>
-      <c r="B303" s="31"/>
+      <c r="A303" s="36"/>
+      <c r="B303" s="37"/>
     </row>
     <row r="304" spans="1:2">
-      <c r="A304" s="30"/>
-      <c r="B304" s="31"/>
+      <c r="A304" s="36"/>
+      <c r="B304" s="37"/>
     </row>
     <row r="305" spans="1:2">
-      <c r="A305" s="4"/>
-      <c r="B305" s="3"/>
+      <c r="A305" s="5"/>
+      <c r="B305" s="4"/>
     </row>
     <row r="306" spans="1:2">
-      <c r="A306" s="4"/>
-      <c r="B306" s="3"/>
+      <c r="A306" s="5"/>
+      <c r="B306" s="4"/>
     </row>
     <row r="307" spans="1:2">
-      <c r="A307" s="4"/>
-      <c r="B307" s="3"/>
+      <c r="A307" s="5"/>
+      <c r="B307" s="4"/>
     </row>
     <row r="308" spans="1:2">
-      <c r="A308" s="4"/>
-      <c r="B308" s="3"/>
+      <c r="A308" s="5"/>
+      <c r="B308" s="4"/>
     </row>
     <row r="309" spans="1:2">
-      <c r="A309" s="4"/>
-      <c r="B309" s="3"/>
+      <c r="A309" s="5"/>
+      <c r="B309" s="4"/>
     </row>
     <row r="310" spans="1:2">
-      <c r="A310" s="4"/>
-      <c r="B310" s="3"/>
+      <c r="A310" s="5"/>
+      <c r="B310" s="4"/>
     </row>
     <row r="311" spans="1:2">
-      <c r="A311" s="14"/>
-      <c r="B311" s="16"/>
+      <c r="A311" s="16"/>
+      <c r="B311" s="18"/>
     </row>
     <row r="312" spans="1:2">
-      <c r="A312" s="14"/>
-      <c r="B312" s="16"/>
+      <c r="A312" s="16"/>
+      <c r="B312" s="18"/>
     </row>
     <row r="313" spans="1:2">
-      <c r="A313" s="14"/>
-      <c r="B313" s="16"/>
+      <c r="A313" s="16"/>
+      <c r="B313" s="18"/>
     </row>
     <row r="314" spans="1:2">
-      <c r="A314" s="14"/>
-      <c r="B314" s="16"/>
+      <c r="A314" s="16"/>
+      <c r="B314" s="18"/>
     </row>
     <row r="315" spans="1:2">
-      <c r="A315" s="17"/>
-      <c r="B315" s="18"/>
+      <c r="A315" s="21"/>
+      <c r="B315" s="22"/>
     </row>
     <row r="316" spans="1:2">
-      <c r="A316" s="17"/>
-      <c r="B316" s="18"/>
+      <c r="A316" s="21"/>
+      <c r="B316" s="22"/>
     </row>
     <row r="317" spans="1:2">
-      <c r="A317" s="17"/>
-      <c r="B317" s="18"/>
+      <c r="A317" s="21"/>
+      <c r="B317" s="22"/>
     </row>
     <row r="318" spans="1:2">
-      <c r="A318" s="32"/>
-      <c r="B318" s="33"/>
+      <c r="A318" s="38"/>
+      <c r="B318" s="39"/>
     </row>
     <row r="319" spans="1:2">
-      <c r="A319" s="34"/>
-      <c r="B319" s="35"/>
+      <c r="A319" s="40"/>
+      <c r="B319" s="41"/>
     </row>
     <row r="320" spans="1:2">
-      <c r="A320" s="34"/>
-      <c r="B320" s="35"/>
+      <c r="A320" s="40"/>
+      <c r="B320" s="41"/>
     </row>
     <row r="321" spans="1:2">
-      <c r="A321" s="34"/>
-      <c r="B321" s="35"/>
+      <c r="A321" s="40"/>
+      <c r="B321" s="41"/>
     </row>
     <row r="322" spans="1:2">
-      <c r="A322" s="34"/>
-      <c r="B322" s="35"/>
+      <c r="A322" s="40"/>
+      <c r="B322" s="41"/>
     </row>
     <row r="323" spans="1:2">
-      <c r="A323" s="34"/>
-      <c r="B323" s="35"/>
+      <c r="A323" s="40"/>
+      <c r="B323" s="41"/>
     </row>
     <row r="324" spans="1:2">
-      <c r="A324" s="34"/>
-      <c r="B324" s="35"/>
+      <c r="A324" s="40"/>
+      <c r="B324" s="41"/>
     </row>
     <row r="325" spans="1:2">
-      <c r="A325" s="34"/>
-      <c r="B325" s="35"/>
+      <c r="A325" s="40"/>
+      <c r="B325" s="41"/>
     </row>
     <row r="326" spans="1:2">
-      <c r="A326" s="34"/>
-      <c r="B326" s="35"/>
+      <c r="A326" s="40"/>
+      <c r="B326" s="41"/>
     </row>
     <row r="327" spans="1:2">
-      <c r="A327" s="22"/>
-      <c r="B327" s="29"/>
+      <c r="A327" s="28"/>
+      <c r="B327" s="35"/>
     </row>
     <row r="328" spans="1:2">
-      <c r="A328" s="22"/>
-      <c r="B328" s="29"/>
+      <c r="A328" s="28"/>
+      <c r="B328" s="35"/>
     </row>
     <row r="329" spans="1:2">
-      <c r="A329" s="22"/>
-      <c r="B329" s="29"/>
+      <c r="A329" s="28"/>
+      <c r="B329" s="35"/>
     </row>
     <row r="330" spans="1:2">
-      <c r="A330" s="22"/>
-      <c r="B330" s="29"/>
+      <c r="A330" s="28"/>
+      <c r="B330" s="35"/>
     </row>
     <row r="331" spans="1:2">
-      <c r="A331" s="22"/>
-      <c r="B331" s="29"/>
+      <c r="A331" s="28"/>
+      <c r="B331" s="35"/>
     </row>
     <row r="332" spans="1:2">
-      <c r="A332" s="22"/>
-      <c r="B332" s="29"/>
+      <c r="A332" s="28"/>
+      <c r="B332" s="35"/>
     </row>
     <row r="333" spans="1:2">
-      <c r="A333" s="22"/>
-      <c r="B333" s="29"/>
+      <c r="A333" s="28"/>
+      <c r="B333" s="35"/>
     </row>
     <row r="334" spans="1:2">
-      <c r="A334" s="22"/>
-      <c r="B334" s="29"/>
+      <c r="A334" s="28"/>
+      <c r="B334" s="35"/>
     </row>
     <row r="335" spans="1:2">
-      <c r="A335" s="22"/>
-      <c r="B335" s="29"/>
+      <c r="A335" s="28"/>
+      <c r="B335" s="35"/>
     </row>
     <row r="336" spans="1:2">
-      <c r="A336" s="22"/>
-      <c r="B336" s="29"/>
+      <c r="A336" s="28"/>
+      <c r="B336" s="35"/>
     </row>
     <row r="337" spans="1:2">
-      <c r="A337" s="22"/>
-      <c r="B337" s="29"/>
+      <c r="A337" s="28"/>
+      <c r="B337" s="35"/>
     </row>
     <row r="338" spans="1:2">
-      <c r="A338" s="36"/>
-      <c r="B338" s="37"/>
+      <c r="A338" s="42"/>
+      <c r="B338" s="43"/>
     </row>
     <row r="339" spans="1:2">
-      <c r="A339" s="36"/>
-      <c r="B339" s="37"/>
+      <c r="A339" s="42"/>
+      <c r="B339" s="43"/>
     </row>
     <row r="340" spans="1:2">
-      <c r="A340" s="36"/>
-      <c r="B340" s="37"/>
+      <c r="A340" s="42"/>
+      <c r="B340" s="43"/>
     </row>
     <row r="341" spans="1:2">
-      <c r="A341" s="36"/>
-      <c r="B341" s="37"/>
+      <c r="A341" s="42"/>
+      <c r="B341" s="43"/>
     </row>
     <row r="342" spans="1:2">
-      <c r="A342" s="36"/>
-      <c r="B342" s="37"/>
+      <c r="A342" s="42"/>
+      <c r="B342" s="43"/>
     </row>
     <row r="343" spans="1:2">
-      <c r="A343" s="36"/>
-      <c r="B343" s="37"/>
+      <c r="A343" s="42"/>
+      <c r="B343" s="43"/>
     </row>
     <row r="344" spans="1:2">
-      <c r="A344" s="36"/>
-      <c r="B344" s="37"/>
+      <c r="A344" s="42"/>
+      <c r="B344" s="43"/>
     </row>
     <row r="345" spans="1:2">
-      <c r="A345" s="36"/>
-      <c r="B345" s="37"/>
+      <c r="A345" s="42"/>
+      <c r="B345" s="43"/>
     </row>
     <row r="346" spans="1:2">
-      <c r="A346" s="36"/>
-      <c r="B346" s="37"/>
+      <c r="A346" s="42"/>
+      <c r="B346" s="43"/>
     </row>
     <row r="347" spans="1:2">
-      <c r="A347" s="36"/>
-      <c r="B347" s="37"/>
+      <c r="A347" s="42"/>
+      <c r="B347" s="43"/>
     </row>
     <row r="348" spans="1:2">
-      <c r="A348" s="36"/>
-      <c r="B348" s="37"/>
+      <c r="A348" s="42"/>
+      <c r="B348" s="43"/>
     </row>
     <row r="349" spans="1:2">
-      <c r="A349" s="36"/>
-      <c r="B349" s="37"/>
+      <c r="A349" s="42"/>
+      <c r="B349" s="43"/>
     </row>
     <row r="350" spans="1:2">
-      <c r="A350" s="30"/>
-      <c r="B350" s="31"/>
+      <c r="A350" s="36"/>
+      <c r="B350" s="37"/>
     </row>
     <row r="351" spans="1:2">
-      <c r="A351" s="36"/>
-      <c r="B351" s="37"/>
+      <c r="A351" s="42"/>
+      <c r="B351" s="43"/>
     </row>
     <row r="352" spans="1:2">
-      <c r="A352" s="36"/>
-      <c r="B352" s="37"/>
+      <c r="A352" s="42"/>
+      <c r="B352" s="43"/>
     </row>
     <row r="353" spans="1:2">
-      <c r="A353" s="36"/>
-      <c r="B353" s="37"/>
+      <c r="A353" s="42"/>
+      <c r="B353" s="43"/>
     </row>
     <row r="354" spans="1:2">
-      <c r="A354" s="36"/>
-      <c r="B354" s="37"/>
+      <c r="A354" s="42"/>
+      <c r="B354" s="43"/>
     </row>
     <row r="355" spans="1:2">
-      <c r="A355" s="36"/>
-      <c r="B355" s="37"/>
+      <c r="A355" s="42"/>
+      <c r="B355" s="43"/>
     </row>
     <row r="356" spans="1:2">
-      <c r="A356" s="36"/>
-      <c r="B356" s="37"/>
+      <c r="A356" s="42"/>
+      <c r="B356" s="43"/>
     </row>
     <row r="357" spans="1:2">
-      <c r="A357" s="36"/>
-      <c r="B357" s="37"/>
+      <c r="A357" s="42"/>
+      <c r="B357" s="43"/>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="1"/>
-      <c r="B358" s="11"/>
+      <c r="B358" s="12"/>
     </row>
     <row r="359" spans="1:2">
-      <c r="A359" s="36"/>
-      <c r="B359" s="37"/>
+      <c r="A359" s="42"/>
+      <c r="B359" s="43"/>
     </row>
     <row r="360" spans="1:2">
-      <c r="A360" s="36"/>
-      <c r="B360" s="37"/>
+      <c r="A360" s="42"/>
+      <c r="B360" s="43"/>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="1"/>
-      <c r="B361" s="11"/>
+      <c r="B361" s="12"/>
     </row>
     <row r="362" spans="1:2">
-      <c r="A362" s="36"/>
-      <c r="B362" s="37"/>
+      <c r="A362" s="42"/>
+      <c r="B362" s="43"/>
     </row>
     <row r="363" spans="1:2">
-      <c r="A363" s="36"/>
-      <c r="B363" s="37"/>
+      <c r="A363" s="42"/>
+      <c r="B363" s="43"/>
     </row>
     <row r="364" spans="1:2">
-      <c r="A364" s="36"/>
-      <c r="B364" s="37"/>
+      <c r="A364" s="42"/>
+      <c r="B364" s="43"/>
     </row>
     <row r="365" spans="1:2">
-      <c r="A365" s="5"/>
-      <c r="B365" s="6"/>
+      <c r="A365" s="6"/>
+      <c r="B365" s="7"/>
     </row>
     <row r="366" spans="1:2">
-      <c r="A366" s="5"/>
-      <c r="B366" s="6"/>
+      <c r="A366" s="6"/>
+      <c r="B366" s="7"/>
     </row>
     <row r="367" spans="1:2">
-      <c r="A367" s="5"/>
-      <c r="B367" s="6"/>
+      <c r="A367" s="6"/>
+      <c r="B367" s="7"/>
     </row>
     <row r="368" spans="1:2">
-      <c r="A368" s="5"/>
-      <c r="B368" s="6"/>
+      <c r="A368" s="6"/>
+      <c r="B368" s="7"/>
     </row>
     <row r="369" spans="1:2">
-      <c r="A369" s="5"/>
-      <c r="B369" s="6"/>
+      <c r="A369" s="6"/>
+      <c r="B369" s="7"/>
     </row>
     <row r="370" spans="1:2">
-      <c r="A370" s="5"/>
-      <c r="B370" s="6"/>
+      <c r="A370" s="6"/>
+      <c r="B370" s="7"/>
     </row>
     <row r="371" spans="1:2">
-      <c r="A371" s="5"/>
-      <c r="B371" s="6"/>
+      <c r="A371" s="6"/>
+      <c r="B371" s="7"/>
     </row>
     <row r="372" spans="1:2">
-      <c r="A372" s="7"/>
-      <c r="B372" s="8"/>
+      <c r="A372" s="8"/>
+      <c r="B372" s="9"/>
     </row>
     <row r="373" spans="1:2">
-      <c r="A373" s="7"/>
-      <c r="B373" s="8"/>
+      <c r="A373" s="8"/>
+      <c r="B373" s="9"/>
     </row>
     <row r="374" spans="1:2">
-      <c r="A374" s="7"/>
-      <c r="B374" s="8"/>
+      <c r="A374" s="8"/>
+      <c r="B374" s="9"/>
     </row>
     <row r="375" spans="1:2">
-      <c r="A375" s="7"/>
-      <c r="B375" s="8"/>
+      <c r="A375" s="8"/>
+      <c r="B375" s="9"/>
     </row>
     <row r="376" spans="1:2">
-      <c r="A376" s="7"/>
-      <c r="B376" s="8"/>
+      <c r="A376" s="8"/>
+      <c r="B376" s="9"/>
     </row>
     <row r="377" spans="1:2">
-      <c r="A377" s="9"/>
-      <c r="B377" s="10"/>
+      <c r="A377" s="10"/>
+      <c r="B377" s="11"/>
     </row>
     <row r="378" spans="1:2">
-      <c r="A378" s="9"/>
-      <c r="B378" s="10"/>
+      <c r="A378" s="10"/>
+      <c r="B378" s="11"/>
     </row>
     <row r="379" spans="1:2">
-      <c r="A379" s="9"/>
-      <c r="B379" s="10"/>
+      <c r="A379" s="10"/>
+      <c r="B379" s="11"/>
     </row>
     <row r="380" spans="1:2">
-      <c r="A380" s="9"/>
-      <c r="B380" s="10"/>
+      <c r="A380" s="10"/>
+      <c r="B380" s="11"/>
     </row>
     <row r="381" spans="1:2">
-      <c r="A381" s="9"/>
-      <c r="B381" s="10"/>
+      <c r="A381" s="10"/>
+      <c r="B381" s="11"/>
     </row>
     <row r="382" spans="1:2">
-      <c r="A382" s="9"/>
-      <c r="B382" s="10"/>
+      <c r="A382" s="10"/>
+      <c r="B382" s="11"/>
     </row>
     <row r="383" spans="1:2">
-      <c r="A383" s="9"/>
-      <c r="B383" s="10"/>
+      <c r="A383" s="10"/>
+      <c r="B383" s="11"/>
     </row>
     <row r="384" spans="1:2">
-      <c r="A384" s="14"/>
-      <c r="B384" s="16"/>
+      <c r="A384" s="16"/>
+      <c r="B384" s="18"/>
     </row>
     <row r="385" spans="1:2">
-      <c r="A385" s="14"/>
-      <c r="B385" s="16"/>
+      <c r="A385" s="16"/>
+      <c r="B385" s="18"/>
     </row>
     <row r="386" spans="1:2">
-      <c r="A386" s="14"/>
-      <c r="B386" s="16"/>
+      <c r="A386" s="16"/>
+      <c r="B386" s="18"/>
     </row>
     <row r="387" spans="1:2">
-      <c r="A387" s="14"/>
-      <c r="B387" s="16"/>
+      <c r="A387" s="16"/>
+      <c r="B387" s="18"/>
     </row>
     <row r="388" spans="1:2">
-      <c r="A388" s="14"/>
-      <c r="B388" s="16"/>
+      <c r="A388" s="16"/>
+      <c r="B388" s="18"/>
     </row>
     <row r="389" spans="1:2">
-      <c r="A389" s="14"/>
-      <c r="B389" s="16"/>
+      <c r="A389" s="16"/>
+      <c r="B389" s="18"/>
     </row>
     <row r="390" spans="1:2">
-      <c r="A390" s="14"/>
-      <c r="B390" s="16"/>
+      <c r="A390" s="16"/>
+      <c r="B390" s="18"/>
     </row>
     <row r="391" spans="1:2">
-      <c r="A391" s="14"/>
-      <c r="B391" s="16"/>
+      <c r="A391" s="16"/>
+      <c r="B391" s="18"/>
     </row>
     <row r="392" spans="1:2">
-      <c r="A392" s="19"/>
-      <c r="B392" s="20"/>
+      <c r="A392" s="23"/>
+      <c r="B392" s="24"/>
     </row>
     <row r="393" spans="1:2">
-      <c r="A393" s="9"/>
-      <c r="B393" s="10"/>
+      <c r="A393" s="10"/>
+      <c r="B393" s="11"/>
     </row>
     <row r="394" spans="1:2">
-      <c r="A394" s="9"/>
-      <c r="B394" s="10"/>
+      <c r="A394" s="10"/>
+      <c r="B394" s="11"/>
     </row>
     <row r="395" spans="1:2">
-      <c r="A395" s="9"/>
-      <c r="B395" s="10"/>
+      <c r="A395" s="10"/>
+      <c r="B395" s="11"/>
     </row>
     <row r="396" spans="1:2">
-      <c r="A396" s="9"/>
-      <c r="B396" s="10"/>
+      <c r="A396" s="10"/>
+      <c r="B396" s="11"/>
     </row>
     <row r="397" spans="1:2">
-      <c r="A397" s="9"/>
-      <c r="B397" s="10"/>
+      <c r="A397" s="10"/>
+      <c r="B397" s="11"/>
     </row>
     <row r="398" spans="1:2">
-      <c r="A398" s="30"/>
-      <c r="B398" s="31"/>
+      <c r="A398" s="36"/>
+      <c r="B398" s="37"/>
     </row>
     <row r="399" spans="1:2">
-      <c r="A399" s="30"/>
-      <c r="B399" s="31"/>
+      <c r="A399" s="36"/>
+      <c r="B399" s="37"/>
     </row>
     <row r="400" spans="1:2">
-      <c r="A400" s="30"/>
-      <c r="B400" s="31"/>
+      <c r="A400" s="36"/>
+      <c r="B400" s="37"/>
     </row>
     <row r="401" spans="1:2">
-      <c r="A401" s="9"/>
-      <c r="B401" s="10"/>
+      <c r="A401" s="10"/>
+      <c r="B401" s="11"/>
     </row>
     <row r="402" spans="1:2">
-      <c r="A402" s="9"/>
-      <c r="B402" s="10"/>
+      <c r="A402" s="10"/>
+      <c r="B402" s="11"/>
     </row>
     <row r="403" spans="1:2">
-      <c r="A403" s="9"/>
-      <c r="B403" s="10"/>
+      <c r="A403" s="10"/>
+      <c r="B403" s="11"/>
     </row>
     <row r="404" spans="1:2">
-      <c r="A404" s="19"/>
-      <c r="B404" s="20"/>
+      <c r="A404" s="23"/>
+      <c r="B404" s="24"/>
     </row>
     <row r="405" spans="1:2">
-      <c r="A405" s="19"/>
-      <c r="B405" s="20"/>
+      <c r="A405" s="23"/>
+      <c r="B405" s="24"/>
     </row>
     <row r="406" spans="1:2">
-      <c r="A406" s="19"/>
-      <c r="B406" s="20"/>
+      <c r="A406" s="23"/>
+      <c r="B406" s="24"/>
     </row>
     <row r="407" spans="1:2">
-      <c r="A407" s="19"/>
-      <c r="B407" s="20"/>
+      <c r="A407" s="23"/>
+      <c r="B407" s="24"/>
     </row>
     <row r="408" spans="1:2">
-      <c r="A408" s="7"/>
-      <c r="B408" s="8"/>
+      <c r="A408" s="8"/>
+      <c r="B408" s="9"/>
     </row>
     <row r="409" spans="1:2">
-      <c r="A409" s="7"/>
-      <c r="B409" s="8"/>
+      <c r="A409" s="8"/>
+      <c r="B409" s="9"/>
     </row>
     <row r="410" spans="1:2">
-      <c r="A410" s="7"/>
-      <c r="B410" s="8"/>
+      <c r="A410" s="8"/>
+      <c r="B410" s="9"/>
     </row>
     <row r="411" spans="1:2">
-      <c r="A411" s="7"/>
-      <c r="B411" s="8"/>
+      <c r="A411" s="8"/>
+      <c r="B411" s="9"/>
     </row>
     <row r="412" spans="1:2">
-      <c r="A412" s="7"/>
-      <c r="B412" s="8"/>
+      <c r="A412" s="8"/>
+      <c r="B412" s="9"/>
     </row>
     <row r="413" spans="1:2">
-      <c r="A413" s="7"/>
-      <c r="B413" s="8"/>
+      <c r="A413" s="8"/>
+      <c r="B413" s="9"/>
     </row>
     <row r="414" spans="1:2">
-      <c r="A414" s="7"/>
-      <c r="B414" s="8"/>
+      <c r="A414" s="8"/>
+      <c r="B414" s="9"/>
     </row>
     <row r="415" spans="1:2">
-      <c r="A415" s="7"/>
-      <c r="B415" s="8"/>
+      <c r="A415" s="8"/>
+      <c r="B415" s="9"/>
     </row>
     <row r="416" spans="1:2">
-      <c r="A416" s="7"/>
-      <c r="B416" s="8"/>
+      <c r="A416" s="8"/>
+      <c r="B416" s="9"/>
     </row>
     <row r="417" spans="1:2">
-      <c r="A417" s="30"/>
-      <c r="B417" s="31"/>
+      <c r="A417" s="36"/>
+      <c r="B417" s="37"/>
     </row>
     <row r="418" spans="1:2">
-      <c r="A418" s="7"/>
-      <c r="B418" s="8"/>
+      <c r="A418" s="8"/>
+      <c r="B418" s="9"/>
     </row>
     <row r="419" spans="1:2">
-      <c r="A419" s="7"/>
-      <c r="B419" s="8"/>
+      <c r="A419" s="8"/>
+      <c r="B419" s="9"/>
     </row>
     <row r="420" spans="1:2">
-      <c r="A420" s="38"/>
-      <c r="B420" s="39"/>
+      <c r="A420" s="44"/>
+      <c r="B420" s="45"/>
     </row>
     <row r="421" spans="1:2">
-      <c r="A421" s="38"/>
-      <c r="B421" s="39"/>
+      <c r="A421" s="44"/>
+      <c r="B421" s="45"/>
     </row>
     <row r="422" spans="1:2">
-      <c r="A422" s="19"/>
-      <c r="B422" s="20"/>
+      <c r="A422" s="23"/>
+      <c r="B422" s="24"/>
     </row>
     <row r="423" spans="1:2">
-      <c r="A423" s="19"/>
-      <c r="B423" s="20"/>
+      <c r="A423" s="23"/>
+      <c r="B423" s="24"/>
     </row>
     <row r="424" spans="1:2">
-      <c r="A424" s="40"/>
-      <c r="B424" s="41"/>
+      <c r="A424" s="46"/>
+      <c r="B424" s="47"/>
     </row>
     <row r="425" spans="1:2">
-      <c r="A425" s="19"/>
-      <c r="B425" s="20"/>
+      <c r="A425" s="23"/>
+      <c r="B425" s="24"/>
     </row>
     <row r="426" spans="1:2">
-      <c r="A426" s="19"/>
-      <c r="B426" s="20"/>
+      <c r="A426" s="23"/>
+      <c r="B426" s="24"/>
     </row>
     <row r="427" spans="1:2">
-      <c r="A427" s="19"/>
-      <c r="B427" s="20"/>
+      <c r="A427" s="23"/>
+      <c r="B427" s="24"/>
     </row>
     <row r="428" spans="1:2">
-      <c r="A428" s="19"/>
-      <c r="B428" s="20"/>
+      <c r="A428" s="23"/>
+      <c r="B428" s="24"/>
     </row>
     <row r="429" spans="1:2">
-      <c r="A429" s="19"/>
-      <c r="B429" s="20"/>
+      <c r="A429" s="23"/>
+      <c r="B429" s="24"/>
     </row>
     <row r="430" spans="1:2">
-      <c r="A430" s="19"/>
-      <c r="B430" s="20"/>
+      <c r="A430" s="23"/>
+      <c r="B430" s="24"/>
     </row>
     <row r="431" spans="1:2">
-      <c r="A431" s="19"/>
-      <c r="B431" s="20"/>
+      <c r="A431" s="23"/>
+      <c r="B431" s="24"/>
     </row>
     <row r="432" spans="1:2">
-      <c r="A432" s="19"/>
-      <c r="B432" s="20"/>
+      <c r="A432" s="23"/>
+      <c r="B432" s="24"/>
     </row>
     <row r="433" spans="1:2">
-      <c r="A433" s="19"/>
-      <c r="B433" s="20"/>
+      <c r="A433" s="23"/>
+      <c r="B433" s="24"/>
     </row>
     <row r="434" spans="1:2">
-      <c r="A434" s="42"/>
-      <c r="B434" s="43"/>
+      <c r="A434" s="48"/>
+      <c r="B434" s="49"/>
     </row>
     <row r="435" spans="1:2">
-      <c r="A435" s="40"/>
-      <c r="B435" s="41"/>
+      <c r="A435" s="46"/>
+      <c r="B435" s="47"/>
     </row>
     <row r="436" spans="1:2">
-      <c r="A436" s="40"/>
-      <c r="B436" s="41"/>
+      <c r="A436" s="46"/>
+      <c r="B436" s="47"/>
     </row>
     <row r="437" spans="1:2">
-      <c r="A437" s="9"/>
-      <c r="B437" s="10"/>
+      <c r="A437" s="10"/>
+      <c r="B437" s="11"/>
     </row>
     <row r="438" spans="1:2">
-      <c r="A438" s="19"/>
-      <c r="B438" s="20"/>
+      <c r="A438" s="23"/>
+      <c r="B438" s="24"/>
     </row>
     <row r="439" spans="1:2">
-      <c r="A439" s="19"/>
-      <c r="B439" s="20"/>
+      <c r="A439" s="23"/>
+      <c r="B439" s="24"/>
     </row>
     <row r="440" spans="1:2">
-      <c r="A440" s="19"/>
-      <c r="B440" s="20"/>
+      <c r="A440" s="23"/>
+      <c r="B440" s="24"/>
     </row>
     <row r="441" spans="1:2">
-      <c r="A441" s="12"/>
-      <c r="B441" s="13"/>
+      <c r="A441" s="13"/>
+      <c r="B441" s="14"/>
     </row>
     <row r="442" spans="1:2">
-      <c r="A442" s="12"/>
-      <c r="B442" s="13"/>
+      <c r="A442" s="13"/>
+      <c r="B442" s="14"/>
     </row>
     <row r="443" spans="1:2">
-      <c r="A443" s="12"/>
-      <c r="B443" s="13"/>
+      <c r="A443" s="13"/>
+      <c r="B443" s="14"/>
     </row>
     <row r="444" spans="1:2">
-      <c r="A444" s="19"/>
-      <c r="B444" s="20"/>
+      <c r="A444" s="23"/>
+      <c r="B444" s="24"/>
     </row>
     <row r="445" spans="1:2">
-      <c r="A445" s="12"/>
-      <c r="B445" s="13"/>
+      <c r="A445" s="13"/>
+      <c r="B445" s="14"/>
     </row>
     <row r="446" spans="1:2">
-      <c r="A446" s="12"/>
-      <c r="B446" s="13"/>
+      <c r="A446" s="13"/>
+      <c r="B446" s="14"/>
     </row>
     <row r="447" spans="1:2">
-      <c r="A447" s="12"/>
-      <c r="B447" s="13"/>
+      <c r="A447" s="13"/>
+      <c r="B447" s="14"/>
     </row>
     <row r="448" spans="1:2">
-      <c r="A448" s="27"/>
+      <c r="A448" s="33"/>
     </row>
     <row r="449" spans="1:2">
-      <c r="A449" s="12"/>
-      <c r="B449" s="13"/>
+      <c r="A449" s="13"/>
+      <c r="B449" s="14"/>
     </row>
     <row r="450" spans="1:2">
-      <c r="A450" s="12"/>
-      <c r="B450" s="13"/>
+      <c r="A450" s="13"/>
+      <c r="B450" s="14"/>
     </row>
     <row r="451" spans="1:2">
-      <c r="A451" s="21"/>
+      <c r="A451" s="25"/>
     </row>
     <row r="452" spans="1:2">
-      <c r="A452" s="40"/>
-      <c r="B452" s="41"/>
+      <c r="A452" s="46"/>
+      <c r="B452" s="47"/>
     </row>
     <row r="453" spans="1:2">
-      <c r="A453" s="12"/>
-      <c r="B453" s="13"/>
+      <c r="A453" s="13"/>
+      <c r="B453" s="14"/>
     </row>
     <row r="454" spans="1:2">
-      <c r="A454" s="12"/>
-      <c r="B454" s="13"/>
+      <c r="A454" s="13"/>
+      <c r="B454" s="14"/>
     </row>
     <row r="455" spans="1:2">
-      <c r="A455" s="12"/>
-      <c r="B455" s="13"/>
+      <c r="A455" s="13"/>
+      <c r="B455" s="14"/>
     </row>
     <row r="456" spans="1:2">
-      <c r="A456" s="12"/>
-      <c r="B456" s="13"/>
+      <c r="A456" s="13"/>
+      <c r="B456" s="14"/>
     </row>
     <row r="457" spans="1:2">
-      <c r="A457" s="12"/>
-      <c r="B457" s="13"/>
+      <c r="A457" s="13"/>
+      <c r="B457" s="14"/>
     </row>
     <row r="458" spans="1:2">
-      <c r="A458" s="12"/>
-      <c r="B458" s="13"/>
+      <c r="A458" s="13"/>
+      <c r="B458" s="14"/>
     </row>
     <row r="459" spans="1:2">
-      <c r="A459" s="12"/>
-      <c r="B459" s="13"/>
+      <c r="A459" s="13"/>
+      <c r="B459" s="14"/>
     </row>
     <row r="460" spans="1:2">
-      <c r="A460" s="12"/>
-      <c r="B460" s="13"/>
+      <c r="A460" s="13"/>
+      <c r="B460" s="14"/>
     </row>
     <row r="461" spans="1:2">
-      <c r="A461" s="12"/>
-      <c r="B461" s="13"/>
+      <c r="A461" s="13"/>
+      <c r="B461" s="14"/>
     </row>
     <row r="462" spans="1:2">
-      <c r="A462" s="40"/>
-      <c r="B462" s="41"/>
+      <c r="A462" s="46"/>
+      <c r="B462" s="47"/>
     </row>
     <row r="463" spans="1:2">
-      <c r="A463" s="12"/>
-      <c r="B463" s="13"/>
+      <c r="A463" s="13"/>
+      <c r="B463" s="14"/>
     </row>
     <row r="464" spans="1:2">
-      <c r="A464" s="21"/>
+      <c r="A464" s="25"/>
     </row>
     <row r="465" spans="1:2">
-      <c r="A465" s="12"/>
-      <c r="B465" s="13"/>
+      <c r="A465" s="13"/>
+      <c r="B465" s="14"/>
     </row>
     <row r="466" spans="1:2">
-      <c r="A466" s="12"/>
-      <c r="B466" s="13"/>
+      <c r="A466" s="13"/>
+      <c r="B466" s="14"/>
     </row>
     <row r="467" spans="1:2">
-      <c r="A467" s="12"/>
-      <c r="B467" s="13"/>
+      <c r="A467" s="13"/>
+      <c r="B467" s="14"/>
     </row>
     <row r="468" spans="1:2">
-      <c r="A468" s="12"/>
-      <c r="B468" s="13"/>
+      <c r="A468" s="13"/>
+      <c r="B468" s="14"/>
     </row>
     <row r="469" spans="1:2">
-      <c r="A469" s="21"/>
+      <c r="A469" s="25"/>
     </row>
     <row r="470" spans="1:2">
-      <c r="A470" s="21"/>
+      <c r="A470" s="25"/>
     </row>
     <row r="471" spans="1:2">
-      <c r="A471" s="12"/>
-      <c r="B471" s="13"/>
+      <c r="A471" s="13"/>
+      <c r="B471" s="14"/>
     </row>
     <row r="472" spans="1:2">
-      <c r="A472" s="12"/>
-      <c r="B472" s="13"/>
+      <c r="A472" s="13"/>
+      <c r="B472" s="14"/>
     </row>
     <row r="473" spans="1:2">
-      <c r="A473" s="12"/>
-      <c r="B473" s="13"/>
+      <c r="A473" s="13"/>
+      <c r="B473" s="14"/>
     </row>
     <row r="474" spans="1:2">
-      <c r="A474" s="12"/>
-      <c r="B474" s="13"/>
+      <c r="A474" s="13"/>
+      <c r="B474" s="14"/>
     </row>
     <row r="475" spans="1:2">
-      <c r="A475" s="12"/>
-      <c r="B475" s="13"/>
+      <c r="A475" s="13"/>
+      <c r="B475" s="14"/>
     </row>
     <row r="476" spans="1:2">
-      <c r="A476" s="12"/>
-      <c r="B476" s="13"/>
+      <c r="A476" s="13"/>
+      <c r="B476" s="14"/>
     </row>
     <row r="477" spans="1:2">
-      <c r="A477" s="12"/>
-      <c r="B477" s="13"/>
+      <c r="A477" s="13"/>
+      <c r="B477" s="14"/>
     </row>
     <row r="478" spans="1:2">
-      <c r="A478" s="12"/>
-      <c r="B478" s="13"/>
+      <c r="A478" s="13"/>
+      <c r="B478" s="14"/>
     </row>
     <row r="479" spans="1:2">
-      <c r="A479" s="12"/>
-      <c r="B479" s="13"/>
+      <c r="A479" s="13"/>
+      <c r="B479" s="14"/>
     </row>
     <row r="480" spans="1:2">
-      <c r="A480" s="12"/>
-      <c r="B480" s="13"/>
+      <c r="A480" s="13"/>
+      <c r="B480" s="14"/>
     </row>
     <row r="481" spans="1:2">
-      <c r="A481" s="21"/>
+      <c r="A481" s="25"/>
     </row>
     <row r="482" spans="1:2">
-      <c r="A482" s="12"/>
-      <c r="B482" s="13"/>
+      <c r="A482" s="13"/>
+      <c r="B482" s="14"/>
     </row>
     <row r="483" spans="1:2">
-      <c r="A483" s="12"/>
-      <c r="B483" s="13"/>
+      <c r="A483" s="13"/>
+      <c r="B483" s="14"/>
     </row>
     <row r="484" spans="1:2">
-      <c r="A484" s="12"/>
-      <c r="B484" s="13"/>
+      <c r="A484" s="13"/>
+      <c r="B484" s="14"/>
     </row>
     <row r="485" spans="1:2">
-      <c r="A485" s="12"/>
-      <c r="B485" s="13"/>
+      <c r="A485" s="13"/>
+      <c r="B485" s="14"/>
     </row>
     <row r="486" spans="1:2">
-      <c r="A486" s="12"/>
-      <c r="B486" s="13"/>
+      <c r="A486" s="13"/>
+      <c r="B486" s="14"/>
     </row>
     <row r="487" spans="1:2">
-      <c r="A487" s="12"/>
-      <c r="B487" s="13"/>
+      <c r="A487" s="13"/>
+      <c r="B487" s="14"/>
     </row>
     <row r="488" spans="1:2">
-      <c r="A488" s="12"/>
-      <c r="B488" s="13"/>
+      <c r="A488" s="13"/>
+      <c r="B488" s="14"/>
     </row>
     <row r="489" spans="1:2">
-      <c r="A489" s="12"/>
-      <c r="B489" s="13"/>
+      <c r="A489" s="13"/>
+      <c r="B489" s="14"/>
     </row>
     <row r="490" spans="1:2">
-      <c r="A490" s="12"/>
-      <c r="B490" s="13"/>
+      <c r="A490" s="13"/>
+      <c r="B490" s="14"/>
     </row>
     <row r="491" spans="1:2">
-      <c r="A491" s="7"/>
-      <c r="B491" s="8"/>
+      <c r="A491" s="8"/>
+      <c r="B491" s="9"/>
     </row>
     <row r="492" spans="1:2">
-      <c r="A492" s="7"/>
-      <c r="B492" s="8"/>
+      <c r="A492" s="8"/>
+      <c r="B492" s="9"/>
     </row>
     <row r="493" spans="1:2">
-      <c r="A493" s="12"/>
-      <c r="B493" s="13"/>
+      <c r="A493" s="13"/>
+      <c r="B493" s="14"/>
     </row>
     <row r="494" spans="1:2">
-      <c r="A494" s="12"/>
-      <c r="B494" s="13"/>
+      <c r="A494" s="13"/>
+      <c r="B494" s="14"/>
     </row>
     <row r="495" spans="1:2">
-      <c r="A495" s="12"/>
-      <c r="B495" s="13"/>
+      <c r="A495" s="13"/>
+      <c r="B495" s="14"/>
     </row>
     <row r="496" spans="1:2">
-      <c r="A496" s="12"/>
-      <c r="B496" s="13"/>
+      <c r="A496" s="13"/>
+      <c r="B496" s="14"/>
     </row>
     <row r="497" spans="1:2">
-      <c r="A497" s="12"/>
-      <c r="B497" s="13"/>
+      <c r="A497" s="13"/>
+      <c r="B497" s="14"/>
     </row>
     <row r="498" spans="1:2">
-      <c r="A498" s="12"/>
-      <c r="B498" s="13"/>
+      <c r="A498" s="13"/>
+      <c r="B498" s="14"/>
     </row>
     <row r="499" spans="1:2">
-      <c r="A499" s="12"/>
-      <c r="B499" s="13"/>
+      <c r="A499" s="13"/>
+      <c r="B499" s="14"/>
     </row>
     <row r="500" spans="1:2">
-      <c r="A500" s="12"/>
-      <c r="B500" s="13"/>
+      <c r="A500" s="13"/>
+      <c r="B500" s="14"/>
     </row>
     <row r="501" spans="1:2">
-      <c r="A501" s="12"/>
-      <c r="B501" s="13"/>
+      <c r="A501" s="13"/>
+      <c r="B501" s="14"/>
     </row>
     <row r="502" spans="1:2">
-      <c r="A502" s="12"/>
-      <c r="B502" s="13"/>
+      <c r="A502" s="13"/>
+      <c r="B502" s="14"/>
     </row>
     <row r="503" spans="1:2">
-      <c r="A503" s="21"/>
+      <c r="A503" s="25"/>
     </row>
     <row r="504" spans="1:2">
-      <c r="A504" s="21"/>
+      <c r="A504" s="25"/>
     </row>
     <row r="505" spans="1:2">
-      <c r="A505" s="21"/>
+      <c r="A505" s="25"/>
     </row>
     <row r="506" spans="1:2">
-      <c r="A506" s="21"/>
+      <c r="A506" s="25"/>
     </row>
     <row r="507" spans="1:2">
-      <c r="A507" s="21"/>
+      <c r="A507" s="25"/>
     </row>
     <row r="508" spans="1:2">
-      <c r="A508" s="9"/>
-      <c r="B508" s="10"/>
+      <c r="A508" s="10"/>
+      <c r="B508" s="11"/>
     </row>
     <row r="509" spans="1:2">
-      <c r="A509" s="21"/>
+      <c r="A509" s="25"/>
     </row>
     <row r="510" spans="1:2">
-      <c r="A510" s="21"/>
+      <c r="A510" s="25"/>
     </row>
     <row r="511" spans="1:2">
-      <c r="A511" s="27"/>
+      <c r="A511" s="33"/>
     </row>
     <row r="512" spans="1:2">
-      <c r="A512" s="44"/>
+      <c r="A512" s="50"/>
     </row>
     <row r="513" spans="1:1">
-      <c r="A513" s="27"/>
+      <c r="A513" s="33"/>
     </row>
     <row r="514" spans="1:1">
-      <c r="A514" s="21"/>
+      <c r="A514" s="25"/>
     </row>
     <row r="515" spans="1:1">
-      <c r="A515" s="27"/>
+      <c r="A515" s="33"/>
     </row>
     <row r="516" spans="1:1">
-      <c r="A516" s="44"/>
+      <c r="A516" s="50"/>
     </row>
     <row r="517" spans="1:1">
-      <c r="A517" s="27"/>
+      <c r="A517" s="33"/>
     </row>
     <row r="518" spans="1:1">
-      <c r="A518" s="27"/>
+      <c r="A518" s="33"/>
     </row>
     <row r="519" spans="1:1">
-      <c r="A519" s="44"/>
+      <c r="A519" s="50"/>
     </row>
     <row r="520" spans="1:1">
-      <c r="A520" s="27"/>
+      <c r="A520" s="33"/>
     </row>
     <row r="521" spans="1:1">
-      <c r="A521" s="45"/>
+      <c r="A521" s="51"/>
     </row>
     <row r="522" spans="1:1">
-      <c r="A522" s="45"/>
+      <c r="A522" s="51"/>
     </row>
     <row r="523" spans="1:1">
-      <c r="A523" s="45"/>
+      <c r="A523" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tradept/Excel/Localization/Main/english/C触发器_Triggers_MainStory_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/C触发器_Triggers_MainStory_hotfix.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9599F21A-8F62-48FB-81E9-2F776648F842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20645134-02A6-44EB-B631-76AF7D8262C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="176">
   <si>
     <t>触发器ID_TriggerID</t>
   </si>
@@ -545,15 +545,18 @@
     <t>纳米西部落外交重置</t>
   </si>
   <si>
-    <t>[[imp:Você tem um tratado em suas mãos. Deve ser assinado para estabelecer a paz entre o Ifrit e a humanidade e para evitar outro Sol Negro.]]</t>
-  </si>
-  <si>
-    <t>[[imp:Sobre o Cristal Sangue Negro]]</t>
+    <t>[[imp:Você tem um tratado em suas mãos. Ele deve ser assinado para estabelecer a paz entre os Ifrit e a humanidade, e para prevenir mais um Sol Negro.]]</t>
+  </si>
+  <si>
+    <t>[[imp:Sobre o Cristal Sangue Negro.]]</t>
   </si>
   <si>
     <t>[[imp:As outras tribos foram conquistadas, como você exigiu.]]</t>
   </si>
   <si>
+    <t>[[imp:Você tem um tratado em mãos. Ele deve ser assinado para estabelecer a paz entre os Ifrit e a humanidade, e evitar mais um Sol Negro.]]</t>
+  </si>
+  <si>
     <t>[[imp:O que você quer que eu faça com este tratado...]]</t>
   </si>
   <si>
@@ -563,10 +566,10 @@
     <t>[[imp:Sobre as preocupações de Ludo Khan...]]</t>
   </si>
   <si>
-    <t>[[imp:Eu tenho algo semelhante. Você pode estar interessado.]]</t>
-  </si>
-  <si>
-    <t>[[imp:Como você conheceu a princesa Ilayda?]]</t>
+    <t>[[imp:Eu tenho algo semelhante. Você pode se interessar.]]</t>
+  </si>
+  <si>
+    <t>[[imp:Como você conheceu a Princesa Ilayda?]]</t>
   </si>
 </sst>
 </file>
@@ -1276,13 +1279,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C523"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C523"/>
+    <sheetView tabSelected="1" topLeftCell="C103" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="157.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.5">
+    <row r="1" spans="1:3">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -1293,265 +1301,265 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="22.5">
+    <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:3" ht="33.75">
+    <row r="3" spans="1:3" ht="22.5">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="7"/>
     </row>
-    <row r="4" spans="1:3" ht="22.5">
+    <row r="4" spans="1:3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:3" ht="22.5">
+    <row r="5" spans="1:3">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:3" ht="22.5">
+    <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="22.5">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="22.5">
+    <row r="8" spans="1:3">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:3" ht="33.75">
+    <row r="9" spans="1:3" ht="22.5">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="11"/>
     </row>
-    <row r="10" spans="1:3" ht="22.5">
+    <row r="10" spans="1:3">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="11"/>
     </row>
-    <row r="11" spans="1:3" ht="22.5">
+    <row r="11" spans="1:3">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="11"/>
     </row>
-    <row r="12" spans="1:3" ht="22.5">
+    <row r="12" spans="1:3">
       <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:3" ht="22.5">
+    <row r="13" spans="1:3">
       <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="1:3" ht="22.5">
+    <row r="14" spans="1:3">
       <c r="A14" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="11"/>
     </row>
-    <row r="15" spans="1:3" ht="22.5">
+    <row r="15" spans="1:3">
       <c r="A15" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="11"/>
     </row>
-    <row r="16" spans="1:3" ht="22.5">
+    <row r="16" spans="1:3">
       <c r="A16" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="11"/>
     </row>
-    <row r="17" spans="1:2" ht="22.5">
+    <row r="17" spans="1:2">
       <c r="A17" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="11"/>
     </row>
-    <row r="18" spans="1:2" ht="22.5">
+    <row r="18" spans="1:2">
       <c r="A18" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:2" ht="22.5">
+    <row r="19" spans="1:2">
       <c r="A19" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="11"/>
     </row>
-    <row r="20" spans="1:2" ht="22.5">
+    <row r="20" spans="1:2">
       <c r="A20" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="11"/>
     </row>
-    <row r="21" spans="1:2" ht="22.5">
+    <row r="21" spans="1:2">
       <c r="A21" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="11"/>
     </row>
-    <row r="22" spans="1:2" ht="22.5">
+    <row r="22" spans="1:2">
       <c r="A22" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:2" ht="22.5">
+    <row r="23" spans="1:2">
       <c r="A23" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="9"/>
     </row>
-    <row r="24" spans="1:2" ht="22.5">
+    <row r="24" spans="1:2">
       <c r="A24" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="9"/>
     </row>
-    <row r="25" spans="1:2" ht="33.75">
+    <row r="25" spans="1:2">
       <c r="A25" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:2" ht="22.5">
+    <row r="26" spans="1:2">
       <c r="A26" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="9"/>
     </row>
-    <row r="27" spans="1:2" ht="22.5">
+    <row r="27" spans="1:2">
       <c r="A27" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="11"/>
     </row>
-    <row r="28" spans="1:2" ht="22.5">
+    <row r="28" spans="1:2">
       <c r="A28" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="11"/>
     </row>
-    <row r="29" spans="1:2" ht="22.5">
+    <row r="29" spans="1:2">
       <c r="A29" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="11"/>
     </row>
-    <row r="30" spans="1:2" ht="22.5">
+    <row r="30" spans="1:2">
       <c r="A30" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="9"/>
     </row>
-    <row r="31" spans="1:2" ht="22.5">
+    <row r="31" spans="1:2">
       <c r="A31" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="11"/>
     </row>
-    <row r="32" spans="1:2" ht="22.5">
+    <row r="32" spans="1:2">
       <c r="A32" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="11"/>
     </row>
-    <row r="33" spans="1:3" ht="22.5">
+    <row r="33" spans="1:3">
       <c r="A33" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="9"/>
     </row>
-    <row r="34" spans="1:3" ht="22.5">
+    <row r="34" spans="1:3">
       <c r="A34" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="9"/>
     </row>
-    <row r="35" spans="1:3" ht="22.5">
+    <row r="35" spans="1:3">
       <c r="A35" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="9"/>
     </row>
-    <row r="36" spans="1:3" ht="22.5">
+    <row r="36" spans="1:3">
       <c r="A36" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="9"/>
     </row>
-    <row r="37" spans="1:3" ht="22.5">
+    <row r="37" spans="1:3">
       <c r="A37" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B37" s="9"/>
     </row>
-    <row r="38" spans="1:3" ht="22.5">
+    <row r="38" spans="1:3">
       <c r="A38" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B38" s="11"/>
     </row>
-    <row r="39" spans="1:3" ht="33.75">
+    <row r="39" spans="1:3" ht="22.5">
       <c r="A39" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B39" s="9"/>
     </row>
-    <row r="40" spans="1:3" ht="33.75">
+    <row r="40" spans="1:3" ht="22.5">
       <c r="A40" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B40" s="9"/>
     </row>
-    <row r="41" spans="1:3" ht="33.75">
+    <row r="41" spans="1:3" ht="22.5">
       <c r="A41" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="1:3" ht="22.5">
+    <row r="42" spans="1:3">
       <c r="A42" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="9"/>
     </row>
-    <row r="43" spans="1:3" ht="45">
+    <row r="43" spans="1:3" ht="22.5">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B43" s="12"/>
     </row>
-    <row r="44" spans="1:3" ht="33.75">
+    <row r="44" spans="1:3" ht="22.5">
       <c r="A44" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B44" s="13"/>
     </row>
-    <row r="45" spans="1:3" ht="101.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="13" t="s">
         <v>46</v>
       </c>
@@ -1562,7 +1570,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="45">
+    <row r="46" spans="1:3" ht="22.5">
       <c r="A46" s="13" t="s">
         <v>48</v>
       </c>
@@ -1573,7 +1581,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="33.75">
+    <row r="47" spans="1:3" ht="22.5">
       <c r="A47" s="13" t="s">
         <v>50</v>
       </c>
@@ -1584,13 +1592,13 @@
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="33.75">
+    <row r="48" spans="1:3" ht="22.5">
       <c r="A48" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="1:3" ht="45">
+    <row r="49" spans="1:3" ht="22.5">
       <c r="A49" s="13" t="s">
         <v>52</v>
       </c>
@@ -1601,67 +1609,67 @@
         <v>169</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="22.5">
+    <row r="50" spans="1:3">
       <c r="A50" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="1:3" ht="22.5">
+    <row r="51" spans="1:3">
       <c r="A51" s="13" t="s">
         <v>55</v>
       </c>
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="1:3" ht="33.75">
+    <row r="52" spans="1:3" ht="22.5">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B52" s="12"/>
     </row>
-    <row r="53" spans="1:3" ht="33.75">
+    <row r="53" spans="1:3" ht="22.5">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B53" s="12"/>
     </row>
-    <row r="54" spans="1:3" ht="33.75">
+    <row r="54" spans="1:3" ht="22.5">
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B54" s="12"/>
     </row>
-    <row r="55" spans="1:3" ht="33.75">
+    <row r="55" spans="1:3" ht="22.5">
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B55" s="12"/>
     </row>
-    <row r="56" spans="1:3" ht="33.75">
+    <row r="56" spans="1:3" ht="22.5">
       <c r="A56" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B56" s="15"/>
     </row>
-    <row r="57" spans="1:3" ht="33.75">
+    <row r="57" spans="1:3" ht="22.5">
       <c r="A57" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B57" s="15"/>
     </row>
-    <row r="58" spans="1:3" ht="56.25">
+    <row r="58" spans="1:3" ht="22.5">
       <c r="A58" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B58" s="15"/>
     </row>
-    <row r="59" spans="1:3" ht="22.5">
+    <row r="59" spans="1:3">
       <c r="A59" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B59" s="18"/>
     </row>
-    <row r="60" spans="1:3" ht="22.5">
+    <row r="60" spans="1:3">
       <c r="A60" s="16" t="s">
         <v>64</v>
       </c>
@@ -1669,10 +1677,10 @@
         <v>47</v>
       </c>
       <c r="C60" s="55" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="33.75">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="22.5">
       <c r="A61" s="16" t="s">
         <v>65</v>
       </c>
@@ -1680,40 +1688,40 @@
         <v>66</v>
       </c>
       <c r="C61" s="55" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="33.75">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="22.5">
       <c r="A62" s="16" t="s">
         <v>67</v>
       </c>
       <c r="B62" s="18"/>
     </row>
-    <row r="63" spans="1:3" ht="33.75">
+    <row r="63" spans="1:3" ht="22.5">
       <c r="A63" s="16" t="s">
         <v>68</v>
       </c>
       <c r="B63" s="18"/>
     </row>
-    <row r="64" spans="1:3" ht="33.75">
+    <row r="64" spans="1:3" ht="22.5">
       <c r="A64" s="16" t="s">
         <v>69</v>
       </c>
       <c r="B64" s="18"/>
     </row>
-    <row r="65" spans="1:3" ht="33.75">
+    <row r="65" spans="1:3" ht="22.5">
       <c r="A65" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B65" s="9"/>
     </row>
-    <row r="66" spans="1:3" ht="33.75">
+    <row r="66" spans="1:3" ht="22.5">
       <c r="A66" s="19" t="s">
         <v>71</v>
       </c>
       <c r="B66" s="20"/>
     </row>
-    <row r="67" spans="1:3" ht="101.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="8" t="s">
         <v>72</v>
       </c>
@@ -1724,37 +1732,37 @@
         <v>167</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="33.75">
+    <row r="68" spans="1:3">
       <c r="A68" s="8" t="s">
         <v>73</v>
       </c>
       <c r="B68" s="8"/>
     </row>
-    <row r="69" spans="1:3" ht="22.5">
+    <row r="69" spans="1:3">
       <c r="A69" s="8" t="s">
         <v>74</v>
       </c>
       <c r="B69" s="8"/>
     </row>
-    <row r="70" spans="1:3" ht="33.75">
+    <row r="70" spans="1:3" ht="22.5">
       <c r="A70" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B70" s="15"/>
     </row>
-    <row r="71" spans="1:3" ht="45">
+    <row r="71" spans="1:3" ht="22.5">
       <c r="A71" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B71" s="15"/>
     </row>
-    <row r="72" spans="1:3" ht="33.75">
+    <row r="72" spans="1:3" ht="22.5">
       <c r="A72" s="19" t="s">
         <v>77</v>
       </c>
       <c r="B72" s="20"/>
     </row>
-    <row r="73" spans="1:3" ht="101.25">
+    <row r="73" spans="1:3" ht="22.5">
       <c r="A73" s="10" t="s">
         <v>78</v>
       </c>
@@ -1765,7 +1773,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="101.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="10" t="s">
         <v>79</v>
       </c>
@@ -1776,7 +1784,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="45">
+    <row r="75" spans="1:3">
       <c r="A75" s="10" t="s">
         <v>80</v>
       </c>
@@ -1784,58 +1792,58 @@
         <v>81</v>
       </c>
       <c r="C75" s="55" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="22.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="10" t="s">
         <v>82</v>
       </c>
       <c r="B76" s="11"/>
     </row>
-    <row r="77" spans="1:3" ht="22.5">
+    <row r="77" spans="1:3">
       <c r="A77" s="10" t="s">
         <v>83</v>
       </c>
       <c r="B77" s="11"/>
     </row>
-    <row r="78" spans="1:3" ht="33.75">
+    <row r="78" spans="1:3" ht="22.5">
       <c r="A78" s="10" t="s">
         <v>84</v>
       </c>
       <c r="B78" s="11"/>
     </row>
-    <row r="79" spans="1:3" ht="33.75">
+    <row r="79" spans="1:3" ht="22.5">
       <c r="A79" s="10" t="s">
         <v>85</v>
       </c>
       <c r="B79" s="11"/>
     </row>
-    <row r="80" spans="1:3" ht="33.75">
+    <row r="80" spans="1:3" ht="22.5">
       <c r="A80" s="10" t="s">
         <v>86</v>
       </c>
       <c r="B80" s="11"/>
     </row>
-    <row r="81" spans="1:3" ht="22.5">
+    <row r="81" spans="1:3">
       <c r="A81" s="10" t="s">
         <v>87</v>
       </c>
       <c r="B81" s="11"/>
     </row>
-    <row r="82" spans="1:3" ht="33.75">
+    <row r="82" spans="1:3" ht="22.5">
       <c r="A82" s="21" t="s">
         <v>88</v>
       </c>
       <c r="B82" s="22"/>
     </row>
-    <row r="83" spans="1:3" ht="33.75">
+    <row r="83" spans="1:3" ht="22.5">
       <c r="A83" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B83" s="20"/>
     </row>
-    <row r="84" spans="1:3" ht="33.75">
+    <row r="84" spans="1:3">
       <c r="A84" s="21" t="s">
         <v>90</v>
       </c>
@@ -1843,10 +1851,10 @@
         <v>91</v>
       </c>
       <c r="C84" s="55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="22.5">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="21" t="s">
         <v>92</v>
       </c>
@@ -1854,34 +1862,34 @@
         <v>47</v>
       </c>
       <c r="C85" s="55" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="33.75">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="22.5">
       <c r="A86" s="21" t="s">
         <v>93</v>
       </c>
       <c r="B86" s="22"/>
     </row>
-    <row r="87" spans="1:3" ht="22.5">
+    <row r="87" spans="1:3">
       <c r="A87" s="21" t="s">
         <v>94</v>
       </c>
       <c r="B87" s="22"/>
     </row>
-    <row r="88" spans="1:3" ht="22.5">
+    <row r="88" spans="1:3">
       <c r="A88" s="21" t="s">
         <v>95</v>
       </c>
       <c r="B88" s="22"/>
     </row>
-    <row r="89" spans="1:3" ht="22.5">
+    <row r="89" spans="1:3">
       <c r="A89" s="21" t="s">
         <v>96</v>
       </c>
       <c r="B89" s="22"/>
     </row>
-    <row r="90" spans="1:3" ht="33.75">
+    <row r="90" spans="1:3">
       <c r="A90" s="21" t="s">
         <v>97</v>
       </c>
@@ -1889,190 +1897,190 @@
         <v>98</v>
       </c>
       <c r="C90" s="55" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="33.75">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="22.5">
       <c r="A91" s="21" t="s">
         <v>99</v>
       </c>
       <c r="B91" s="22"/>
     </row>
-    <row r="92" spans="1:3" ht="33.75">
+    <row r="92" spans="1:3" ht="22.5">
       <c r="A92" s="21" t="s">
         <v>100</v>
       </c>
       <c r="B92" s="22"/>
     </row>
-    <row r="93" spans="1:3" ht="22.5">
+    <row r="93" spans="1:3">
       <c r="A93" s="21" t="s">
         <v>101</v>
       </c>
       <c r="B93" s="22"/>
     </row>
-    <row r="94" spans="1:3" ht="22.5">
+    <row r="94" spans="1:3">
       <c r="A94" s="21" t="s">
         <v>102</v>
       </c>
       <c r="B94" s="22"/>
     </row>
-    <row r="95" spans="1:3" ht="22.5">
+    <row r="95" spans="1:3">
       <c r="A95" s="21" t="s">
         <v>103</v>
       </c>
       <c r="B95" s="22"/>
     </row>
-    <row r="96" spans="1:3" ht="22.5">
+    <row r="96" spans="1:3">
       <c r="A96" s="21" t="s">
         <v>104</v>
       </c>
       <c r="B96" s="22"/>
     </row>
-    <row r="97" spans="1:2" ht="22.5">
+    <row r="97" spans="1:2">
       <c r="A97" s="23" t="s">
         <v>105</v>
       </c>
       <c r="B97" s="24"/>
     </row>
-    <row r="98" spans="1:2" ht="22.5">
+    <row r="98" spans="1:2">
       <c r="A98" s="23" t="s">
         <v>106</v>
       </c>
       <c r="B98" s="24"/>
     </row>
-    <row r="99" spans="1:2" ht="22.5">
+    <row r="99" spans="1:2">
       <c r="A99" s="10" t="s">
         <v>107</v>
       </c>
       <c r="B99" s="11"/>
     </row>
-    <row r="100" spans="1:2" ht="22.5">
+    <row r="100" spans="1:2">
       <c r="A100" s="21" t="s">
         <v>108</v>
       </c>
       <c r="B100" s="22"/>
     </row>
-    <row r="101" spans="1:2" ht="22.5">
+    <row r="101" spans="1:2">
       <c r="A101" s="21" t="s">
         <v>109</v>
       </c>
       <c r="B101" s="22"/>
     </row>
-    <row r="102" spans="1:2" ht="22.5">
+    <row r="102" spans="1:2">
       <c r="A102" s="10" t="s">
         <v>110</v>
       </c>
       <c r="B102" s="11"/>
     </row>
-    <row r="103" spans="1:2" ht="22.5">
+    <row r="103" spans="1:2">
       <c r="A103" s="10" t="s">
         <v>111</v>
       </c>
       <c r="B103" s="11"/>
     </row>
-    <row r="104" spans="1:2" ht="22.5">
+    <row r="104" spans="1:2">
       <c r="A104" s="23" t="s">
         <v>112</v>
       </c>
       <c r="B104" s="24"/>
     </row>
-    <row r="105" spans="1:2" ht="22.5">
+    <row r="105" spans="1:2">
       <c r="A105" s="23" t="s">
         <v>113</v>
       </c>
       <c r="B105" s="24"/>
     </row>
-    <row r="106" spans="1:2" ht="22.5">
+    <row r="106" spans="1:2">
       <c r="A106" s="23" t="s">
         <v>114</v>
       </c>
       <c r="B106" s="24"/>
     </row>
-    <row r="107" spans="1:2" ht="22.5">
+    <row r="107" spans="1:2">
       <c r="A107" s="23" t="s">
         <v>115</v>
       </c>
       <c r="B107" s="24"/>
     </row>
-    <row r="108" spans="1:2" ht="22.5">
+    <row r="108" spans="1:2">
       <c r="A108" s="23" t="s">
         <v>116</v>
       </c>
       <c r="B108" s="24"/>
     </row>
-    <row r="109" spans="1:2" ht="22.5">
+    <row r="109" spans="1:2">
       <c r="A109" s="23" t="s">
         <v>117</v>
       </c>
       <c r="B109" s="24"/>
     </row>
-    <row r="110" spans="1:2" ht="22.5">
+    <row r="110" spans="1:2">
       <c r="A110" s="23" t="s">
         <v>118</v>
       </c>
       <c r="B110" s="24"/>
     </row>
-    <row r="111" spans="1:2" ht="22.5">
+    <row r="111" spans="1:2">
       <c r="A111" s="23" t="s">
         <v>119</v>
       </c>
       <c r="B111" s="24"/>
     </row>
-    <row r="112" spans="1:2" ht="22.5">
+    <row r="112" spans="1:2">
       <c r="A112" s="23" t="s">
         <v>120</v>
       </c>
       <c r="B112" s="24"/>
     </row>
-    <row r="113" spans="1:3" ht="22.5">
+    <row r="113" spans="1:3">
       <c r="A113" s="23" t="s">
         <v>121</v>
       </c>
       <c r="B113" s="24"/>
     </row>
-    <row r="114" spans="1:3" ht="22.5">
+    <row r="114" spans="1:3">
       <c r="A114" s="23" t="s">
         <v>122</v>
       </c>
       <c r="B114" s="24"/>
     </row>
-    <row r="115" spans="1:3" ht="22.5">
+    <row r="115" spans="1:3">
       <c r="A115" s="23" t="s">
         <v>123</v>
       </c>
       <c r="B115" s="24"/>
     </row>
-    <row r="116" spans="1:3" ht="22.5">
+    <row r="116" spans="1:3">
       <c r="A116" s="23" t="s">
         <v>124</v>
       </c>
       <c r="B116" s="24"/>
     </row>
-    <row r="117" spans="1:3" ht="22.5">
+    <row r="117" spans="1:3">
       <c r="A117" s="23" t="s">
         <v>125</v>
       </c>
       <c r="B117" s="24"/>
     </row>
-    <row r="118" spans="1:3" ht="33.75">
+    <row r="118" spans="1:3">
       <c r="A118" s="23" t="s">
         <v>126</v>
       </c>
       <c r="B118" s="24"/>
     </row>
-    <row r="119" spans="1:3" ht="22.5">
+    <row r="119" spans="1:3">
       <c r="A119" s="23" t="s">
         <v>127</v>
       </c>
       <c r="B119" s="24"/>
     </row>
-    <row r="120" spans="1:3" ht="22.5">
+    <row r="120" spans="1:3">
       <c r="A120" s="23" t="s">
         <v>128</v>
       </c>
       <c r="B120" s="24"/>
     </row>
-    <row r="121" spans="1:3" ht="45">
+    <row r="121" spans="1:3">
       <c r="A121" s="25" t="s">
         <v>129</v>
       </c>
@@ -2080,118 +2088,118 @@
         <v>130</v>
       </c>
       <c r="C121" s="55" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="33.75">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" s="21" t="s">
         <v>131</v>
       </c>
       <c r="B122" s="22"/>
     </row>
-    <row r="123" spans="1:3" ht="22.5">
+    <row r="123" spans="1:3">
       <c r="A123" s="21" t="s">
         <v>132</v>
       </c>
       <c r="B123" s="22"/>
     </row>
-    <row r="124" spans="1:3" ht="22.5">
+    <row r="124" spans="1:3">
       <c r="A124" s="10" t="s">
         <v>133</v>
       </c>
       <c r="B124" s="11"/>
     </row>
-    <row r="125" spans="1:3" ht="22.5">
+    <row r="125" spans="1:3">
       <c r="A125" s="27" t="s">
         <v>134</v>
       </c>
       <c r="B125" s="27"/>
     </row>
-    <row r="126" spans="1:3" ht="22.5">
+    <row r="126" spans="1:3">
       <c r="A126" s="27" t="s">
         <v>135</v>
       </c>
       <c r="B126" s="27"/>
     </row>
-    <row r="127" spans="1:3" ht="22.5">
+    <row r="127" spans="1:3">
       <c r="A127" s="27" t="s">
         <v>136</v>
       </c>
       <c r="B127" s="27"/>
     </row>
-    <row r="128" spans="1:3" ht="22.5">
+    <row r="128" spans="1:3">
       <c r="A128" s="27" t="s">
         <v>137</v>
       </c>
       <c r="B128" s="27"/>
     </row>
-    <row r="129" spans="1:2" ht="22.5">
+    <row r="129" spans="1:2">
       <c r="A129" s="27" t="s">
         <v>138</v>
       </c>
       <c r="B129" s="27"/>
     </row>
-    <row r="130" spans="1:2" ht="22.5">
+    <row r="130" spans="1:2">
       <c r="A130" s="21" t="s">
         <v>139</v>
       </c>
       <c r="B130" s="22"/>
     </row>
-    <row r="131" spans="1:2" ht="22.5">
+    <row r="131" spans="1:2">
       <c r="A131" s="21" t="s">
         <v>140</v>
       </c>
       <c r="B131" s="22"/>
     </row>
-    <row r="132" spans="1:2" ht="22.5">
+    <row r="132" spans="1:2">
       <c r="A132" s="27" t="s">
         <v>141</v>
       </c>
       <c r="B132" s="27"/>
     </row>
-    <row r="133" spans="1:2" ht="22.5">
+    <row r="133" spans="1:2">
       <c r="A133" s="21" t="s">
         <v>142</v>
       </c>
       <c r="B133" s="22"/>
     </row>
-    <row r="134" spans="1:2" ht="22.5">
+    <row r="134" spans="1:2">
       <c r="A134" s="27" t="s">
         <v>143</v>
       </c>
       <c r="B134" s="27"/>
     </row>
-    <row r="135" spans="1:2" ht="22.5">
+    <row r="135" spans="1:2">
       <c r="A135" s="8" t="s">
         <v>144</v>
       </c>
       <c r="B135" s="9"/>
     </row>
-    <row r="136" spans="1:2" ht="22.5">
+    <row r="136" spans="1:2">
       <c r="A136" s="8" t="s">
         <v>145</v>
       </c>
       <c r="B136" s="9"/>
     </row>
-    <row r="137" spans="1:2" ht="22.5">
+    <row r="137" spans="1:2">
       <c r="A137" s="27" t="s">
         <v>146</v>
       </c>
       <c r="B137" s="27"/>
     </row>
-    <row r="138" spans="1:2" ht="22.5">
+    <row r="138" spans="1:2">
       <c r="A138" s="27" t="s">
         <v>147</v>
       </c>
       <c r="B138" s="27"/>
     </row>
-    <row r="139" spans="1:2" ht="22.5">
+    <row r="139" spans="1:2">
       <c r="A139" s="27" t="s">
         <v>148</v>
       </c>
       <c r="B139" s="27"/>
     </row>
-    <row r="140" spans="1:2" ht="22.5">
+    <row r="140" spans="1:2">
       <c r="A140" s="27" t="s">
         <v>149</v>
       </c>
@@ -2209,7 +2217,7 @@
       </c>
       <c r="B142" s="22"/>
     </row>
-    <row r="143" spans="1:2" ht="22.5">
+    <row r="143" spans="1:2">
       <c r="A143" s="27" t="s">
         <v>152</v>
       </c>
@@ -2221,79 +2229,79 @@
       </c>
       <c r="B144" s="9"/>
     </row>
-    <row r="145" spans="1:2" ht="22.5">
+    <row r="145" spans="1:2">
       <c r="A145" s="8" t="s">
         <v>154</v>
       </c>
       <c r="B145" s="9"/>
     </row>
-    <row r="146" spans="1:2" ht="22.5">
+    <row r="146" spans="1:2">
       <c r="A146" s="8" t="s">
         <v>155</v>
       </c>
       <c r="B146" s="9"/>
     </row>
-    <row r="147" spans="1:2" ht="22.5">
+    <row r="147" spans="1:2">
       <c r="A147" s="28" t="s">
         <v>156</v>
       </c>
       <c r="B147" s="28"/>
     </row>
-    <row r="148" spans="1:2" ht="22.5">
+    <row r="148" spans="1:2">
       <c r="A148" s="28" t="s">
         <v>157</v>
       </c>
       <c r="B148" s="28"/>
     </row>
-    <row r="149" spans="1:2" ht="22.5">
+    <row r="149" spans="1:2">
       <c r="A149" s="28" t="s">
         <v>158</v>
       </c>
       <c r="B149" s="28"/>
     </row>
-    <row r="150" spans="1:2" ht="22.5">
+    <row r="150" spans="1:2">
       <c r="A150" s="28" t="s">
         <v>159</v>
       </c>
       <c r="B150" s="28"/>
     </row>
-    <row r="151" spans="1:2" ht="22.5">
+    <row r="151" spans="1:2">
       <c r="A151" s="28" t="s">
         <v>160</v>
       </c>
       <c r="B151" s="28"/>
     </row>
-    <row r="152" spans="1:2" ht="22.5">
+    <row r="152" spans="1:2">
       <c r="A152" s="28" t="s">
         <v>161</v>
       </c>
       <c r="B152" s="28"/>
     </row>
-    <row r="153" spans="1:2" ht="22.5">
+    <row r="153" spans="1:2">
       <c r="A153" s="28" t="s">
         <v>162</v>
       </c>
       <c r="B153" s="28"/>
     </row>
-    <row r="154" spans="1:2" ht="22.5">
+    <row r="154" spans="1:2">
       <c r="A154" s="21" t="s">
         <v>163</v>
       </c>
       <c r="B154" s="22"/>
     </row>
-    <row r="155" spans="1:2" ht="22.5">
+    <row r="155" spans="1:2">
       <c r="A155" s="8" t="s">
         <v>164</v>
       </c>
       <c r="B155" s="9"/>
     </row>
-    <row r="156" spans="1:2" ht="22.5">
+    <row r="156" spans="1:2">
       <c r="A156" s="8" t="s">
         <v>165</v>
       </c>
       <c r="B156" s="9"/>
     </row>
-    <row r="157" spans="1:2" ht="22.5">
+    <row r="157" spans="1:2">
       <c r="A157" s="10" t="s">
         <v>166</v>
       </c>

--- a/tradept/Excel/Localization/Main/english/C触发器_Triggers_MainStory_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/C触发器_Triggers_MainStory_hotfix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20645134-02A6-44EB-B631-76AF7D8262C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC15786-F214-45F0-A15A-A5BACD03107C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -545,16 +545,16 @@
     <t>纳米西部落外交重置</t>
   </si>
   <si>
-    <t>[[imp:Você tem um tratado em suas mãos. Ele deve ser assinado para estabelecer a paz entre os Ifrit e a humanidade, e para prevenir mais um Sol Negro.]]</t>
-  </si>
-  <si>
-    <t>[[imp:Sobre o Cristal Sangue Negro.]]</t>
-  </si>
-  <si>
-    <t>[[imp:As outras tribos foram conquistadas, como você exigiu.]]</t>
-  </si>
-  <si>
-    <t>[[imp:Você tem um tratado em mãos. Ele deve ser assinado para estabelecer a paz entre os Ifrit e a humanidade, e evitar mais um Sol Negro.]]</t>
+    <t>[[imp:Você tem um tratado em mãos. Deve ser assinado para estabelecer a paz entre os Ifrit e a humanidade, e evitar mais um Sol Negro.]]</t>
+  </si>
+  <si>
+    <t>[[imp:Sobre o Cristal Sangue-Negro.l]]</t>
+  </si>
+  <si>
+    <t>[[imp:Sobre o Cristal Sangue-Negro.]]</t>
+  </si>
+  <si>
+    <t>[[imp:As outras tribos foram conquistadas, conforme você exigiu.]]</t>
   </si>
   <si>
     <t>[[imp:O que você quer que eu faça com este tratado...]]</t>
@@ -566,7 +566,7 @@
     <t>[[imp:Sobre as preocupações de Ludo Khan...]]</t>
   </si>
   <si>
-    <t>[[imp:Eu tenho algo semelhante. Você pode se interessar.]]</t>
+    <t>[[imp:Eu tenho algo semelhante. Talvez possa lhe interessar.]]</t>
   </si>
   <si>
     <t>[[imp:Como você conheceu a Princesa Ilayda?]]</t>
@@ -1279,18 +1279,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C103" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="157.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="151.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="22.5">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -1301,265 +1301,265 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="22.5">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:3" ht="22.5">
+    <row r="3" spans="1:3" ht="33.75">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="7"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="22.5">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="22.5">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="22.5">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="22.5">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="22.5">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:3" ht="22.5">
+    <row r="9" spans="1:3" ht="33.75">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="11"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="22.5">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="11"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="22.5">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="11"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="22.5">
       <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="22.5">
       <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="22.5">
       <c r="A14" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="11"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" ht="22.5">
       <c r="A15" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="11"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" ht="22.5">
       <c r="A16" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="11"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="22.5">
       <c r="A17" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="11"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" ht="22.5">
       <c r="A18" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="22.5">
       <c r="A19" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="11"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="22.5">
       <c r="A20" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="11"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" ht="22.5">
       <c r="A21" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="11"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" ht="22.5">
       <c r="A22" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" ht="22.5">
       <c r="A23" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="9"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" ht="22.5">
       <c r="A24" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="9"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" ht="33.75">
       <c r="A25" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" ht="22.5">
       <c r="A26" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="9"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" ht="22.5">
       <c r="A27" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="11"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" ht="22.5">
       <c r="A28" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="11"/>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" ht="22.5">
       <c r="A29" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="11"/>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" ht="22.5">
       <c r="A30" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="9"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" ht="22.5">
       <c r="A31" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="11"/>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" ht="22.5">
       <c r="A32" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="11"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" ht="22.5">
       <c r="A33" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="9"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" ht="22.5">
       <c r="A34" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="9"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" ht="22.5">
       <c r="A35" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="9"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" ht="22.5">
       <c r="A36" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="9"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" ht="22.5">
       <c r="A37" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B37" s="9"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" ht="22.5">
       <c r="A38" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B38" s="11"/>
     </row>
-    <row r="39" spans="1:3" ht="22.5">
+    <row r="39" spans="1:3" ht="33.75">
       <c r="A39" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B39" s="9"/>
     </row>
-    <row r="40" spans="1:3" ht="22.5">
+    <row r="40" spans="1:3" ht="33.75">
       <c r="A40" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B40" s="9"/>
     </row>
-    <row r="41" spans="1:3" ht="22.5">
+    <row r="41" spans="1:3" ht="33.75">
       <c r="A41" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" ht="22.5">
       <c r="A42" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="9"/>
     </row>
-    <row r="43" spans="1:3" ht="22.5">
+    <row r="43" spans="1:3" ht="45">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B43" s="12"/>
     </row>
-    <row r="44" spans="1:3" ht="22.5">
+    <row r="44" spans="1:3" ht="33.75">
       <c r="A44" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B44" s="13"/>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" ht="101.25">
       <c r="A45" s="13" t="s">
         <v>46</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="22.5">
+    <row r="46" spans="1:3" ht="45">
       <c r="A46" s="13" t="s">
         <v>48</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="22.5">
+    <row r="47" spans="1:3" ht="33.75">
       <c r="A47" s="13" t="s">
         <v>50</v>
       </c>
@@ -1589,16 +1589,16 @@
         <v>49</v>
       </c>
       <c r="C47" s="55" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="22.5">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="33.75">
       <c r="A48" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="1:3" ht="22.5">
+    <row r="49" spans="1:3" ht="45">
       <c r="A49" s="13" t="s">
         <v>52</v>
       </c>
@@ -1606,70 +1606,70 @@
         <v>53</v>
       </c>
       <c r="C49" s="55" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="22.5">
       <c r="A50" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" ht="22.5">
       <c r="A51" s="13" t="s">
         <v>55</v>
       </c>
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="1:3" ht="22.5">
+    <row r="52" spans="1:3" ht="33.75">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B52" s="12"/>
     </row>
-    <row r="53" spans="1:3" ht="22.5">
+    <row r="53" spans="1:3" ht="33.75">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B53" s="12"/>
     </row>
-    <row r="54" spans="1:3" ht="22.5">
+    <row r="54" spans="1:3" ht="33.75">
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B54" s="12"/>
     </row>
-    <row r="55" spans="1:3" ht="22.5">
+    <row r="55" spans="1:3" ht="33.75">
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B55" s="12"/>
     </row>
-    <row r="56" spans="1:3" ht="22.5">
+    <row r="56" spans="1:3" ht="33.75">
       <c r="A56" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B56" s="15"/>
     </row>
-    <row r="57" spans="1:3" ht="22.5">
+    <row r="57" spans="1:3" ht="33.75">
       <c r="A57" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B57" s="15"/>
     </row>
-    <row r="58" spans="1:3" ht="22.5">
+    <row r="58" spans="1:3" ht="56.25">
       <c r="A58" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B58" s="15"/>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" ht="22.5">
       <c r="A59" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B59" s="18"/>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" ht="22.5">
       <c r="A60" s="16" t="s">
         <v>64</v>
       </c>
@@ -1677,10 +1677,10 @@
         <v>47</v>
       </c>
       <c r="C60" s="55" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="22.5">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="33.75">
       <c r="A61" s="16" t="s">
         <v>65</v>
       </c>
@@ -1691,37 +1691,37 @@
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="22.5">
+    <row r="62" spans="1:3" ht="33.75">
       <c r="A62" s="16" t="s">
         <v>67</v>
       </c>
       <c r="B62" s="18"/>
     </row>
-    <row r="63" spans="1:3" ht="22.5">
+    <row r="63" spans="1:3" ht="33.75">
       <c r="A63" s="16" t="s">
         <v>68</v>
       </c>
       <c r="B63" s="18"/>
     </row>
-    <row r="64" spans="1:3" ht="22.5">
+    <row r="64" spans="1:3" ht="33.75">
       <c r="A64" s="16" t="s">
         <v>69</v>
       </c>
       <c r="B64" s="18"/>
     </row>
-    <row r="65" spans="1:3" ht="22.5">
+    <row r="65" spans="1:3" ht="33.75">
       <c r="A65" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B65" s="9"/>
     </row>
-    <row r="66" spans="1:3" ht="22.5">
+    <row r="66" spans="1:3" ht="33.75">
       <c r="A66" s="19" t="s">
         <v>71</v>
       </c>
       <c r="B66" s="20"/>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" ht="101.25">
       <c r="A67" s="8" t="s">
         <v>72</v>
       </c>
@@ -1732,37 +1732,37 @@
         <v>167</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" ht="33.75">
       <c r="A68" s="8" t="s">
         <v>73</v>
       </c>
       <c r="B68" s="8"/>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" ht="22.5">
       <c r="A69" s="8" t="s">
         <v>74</v>
       </c>
       <c r="B69" s="8"/>
     </row>
-    <row r="70" spans="1:3" ht="22.5">
+    <row r="70" spans="1:3" ht="33.75">
       <c r="A70" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B70" s="15"/>
     </row>
-    <row r="71" spans="1:3" ht="22.5">
+    <row r="71" spans="1:3" ht="45">
       <c r="A71" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B71" s="15"/>
     </row>
-    <row r="72" spans="1:3" ht="22.5">
+    <row r="72" spans="1:3" ht="33.75">
       <c r="A72" s="19" t="s">
         <v>77</v>
       </c>
       <c r="B72" s="20"/>
     </row>
-    <row r="73" spans="1:3" ht="22.5">
+    <row r="73" spans="1:3" ht="101.25">
       <c r="A73" s="10" t="s">
         <v>78</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" ht="101.25">
       <c r="A74" s="10" t="s">
         <v>79</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" ht="45">
       <c r="A75" s="10" t="s">
         <v>80</v>
       </c>
@@ -1795,55 +1795,55 @@
         <v>172</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" ht="22.5">
       <c r="A76" s="10" t="s">
         <v>82</v>
       </c>
       <c r="B76" s="11"/>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" ht="22.5">
       <c r="A77" s="10" t="s">
         <v>83</v>
       </c>
       <c r="B77" s="11"/>
     </row>
-    <row r="78" spans="1:3" ht="22.5">
+    <row r="78" spans="1:3" ht="33.75">
       <c r="A78" s="10" t="s">
         <v>84</v>
       </c>
       <c r="B78" s="11"/>
     </row>
-    <row r="79" spans="1:3" ht="22.5">
+    <row r="79" spans="1:3" ht="33.75">
       <c r="A79" s="10" t="s">
         <v>85</v>
       </c>
       <c r="B79" s="11"/>
     </row>
-    <row r="80" spans="1:3" ht="22.5">
+    <row r="80" spans="1:3" ht="33.75">
       <c r="A80" s="10" t="s">
         <v>86</v>
       </c>
       <c r="B80" s="11"/>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" ht="22.5">
       <c r="A81" s="10" t="s">
         <v>87</v>
       </c>
       <c r="B81" s="11"/>
     </row>
-    <row r="82" spans="1:3" ht="22.5">
+    <row r="82" spans="1:3" ht="33.75">
       <c r="A82" s="21" t="s">
         <v>88</v>
       </c>
       <c r="B82" s="22"/>
     </row>
-    <row r="83" spans="1:3" ht="22.5">
+    <row r="83" spans="1:3" ht="33.75">
       <c r="A83" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B83" s="20"/>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" ht="33.75">
       <c r="A84" s="21" t="s">
         <v>90</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" ht="22.5">
       <c r="A85" s="21" t="s">
         <v>92</v>
       </c>
@@ -1862,34 +1862,34 @@
         <v>47</v>
       </c>
       <c r="C85" s="55" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="22.5">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="33.75">
       <c r="A86" s="21" t="s">
         <v>93</v>
       </c>
       <c r="B86" s="22"/>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" ht="22.5">
       <c r="A87" s="21" t="s">
         <v>94</v>
       </c>
       <c r="B87" s="22"/>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" ht="22.5">
       <c r="A88" s="21" t="s">
         <v>95</v>
       </c>
       <c r="B88" s="22"/>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" ht="22.5">
       <c r="A89" s="21" t="s">
         <v>96</v>
       </c>
       <c r="B89" s="22"/>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" ht="33.75">
       <c r="A90" s="21" t="s">
         <v>97</v>
       </c>
@@ -1900,187 +1900,187 @@
         <v>174</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="22.5">
+    <row r="91" spans="1:3" ht="33.75">
       <c r="A91" s="21" t="s">
         <v>99</v>
       </c>
       <c r="B91" s="22"/>
     </row>
-    <row r="92" spans="1:3" ht="22.5">
+    <row r="92" spans="1:3" ht="33.75">
       <c r="A92" s="21" t="s">
         <v>100</v>
       </c>
       <c r="B92" s="22"/>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" ht="22.5">
       <c r="A93" s="21" t="s">
         <v>101</v>
       </c>
       <c r="B93" s="22"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" ht="22.5">
       <c r="A94" s="21" t="s">
         <v>102</v>
       </c>
       <c r="B94" s="22"/>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" ht="22.5">
       <c r="A95" s="21" t="s">
         <v>103</v>
       </c>
       <c r="B95" s="22"/>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" ht="22.5">
       <c r="A96" s="21" t="s">
         <v>104</v>
       </c>
       <c r="B96" s="22"/>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" ht="22.5">
       <c r="A97" s="23" t="s">
         <v>105</v>
       </c>
       <c r="B97" s="24"/>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" ht="22.5">
       <c r="A98" s="23" t="s">
         <v>106</v>
       </c>
       <c r="B98" s="24"/>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" ht="22.5">
       <c r="A99" s="10" t="s">
         <v>107</v>
       </c>
       <c r="B99" s="11"/>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" ht="22.5">
       <c r="A100" s="21" t="s">
         <v>108</v>
       </c>
       <c r="B100" s="22"/>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" ht="22.5">
       <c r="A101" s="21" t="s">
         <v>109</v>
       </c>
       <c r="B101" s="22"/>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" ht="22.5">
       <c r="A102" s="10" t="s">
         <v>110</v>
       </c>
       <c r="B102" s="11"/>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" ht="22.5">
       <c r="A103" s="10" t="s">
         <v>111</v>
       </c>
       <c r="B103" s="11"/>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" ht="22.5">
       <c r="A104" s="23" t="s">
         <v>112</v>
       </c>
       <c r="B104" s="24"/>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" ht="22.5">
       <c r="A105" s="23" t="s">
         <v>113</v>
       </c>
       <c r="B105" s="24"/>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" ht="22.5">
       <c r="A106" s="23" t="s">
         <v>114</v>
       </c>
       <c r="B106" s="24"/>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" ht="22.5">
       <c r="A107" s="23" t="s">
         <v>115</v>
       </c>
       <c r="B107" s="24"/>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" ht="22.5">
       <c r="A108" s="23" t="s">
         <v>116</v>
       </c>
       <c r="B108" s="24"/>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" ht="22.5">
       <c r="A109" s="23" t="s">
         <v>117</v>
       </c>
       <c r="B109" s="24"/>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" ht="22.5">
       <c r="A110" s="23" t="s">
         <v>118</v>
       </c>
       <c r="B110" s="24"/>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" ht="22.5">
       <c r="A111" s="23" t="s">
         <v>119</v>
       </c>
       <c r="B111" s="24"/>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" ht="22.5">
       <c r="A112" s="23" t="s">
         <v>120</v>
       </c>
       <c r="B112" s="24"/>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" ht="22.5">
       <c r="A113" s="23" t="s">
         <v>121</v>
       </c>
       <c r="B113" s="24"/>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" ht="22.5">
       <c r="A114" s="23" t="s">
         <v>122</v>
       </c>
       <c r="B114" s="24"/>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" ht="22.5">
       <c r="A115" s="23" t="s">
         <v>123</v>
       </c>
       <c r="B115" s="24"/>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" ht="22.5">
       <c r="A116" s="23" t="s">
         <v>124</v>
       </c>
       <c r="B116" s="24"/>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" ht="22.5">
       <c r="A117" s="23" t="s">
         <v>125</v>
       </c>
       <c r="B117" s="24"/>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" ht="33.75">
       <c r="A118" s="23" t="s">
         <v>126</v>
       </c>
       <c r="B118" s="24"/>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" ht="22.5">
       <c r="A119" s="23" t="s">
         <v>127</v>
       </c>
       <c r="B119" s="24"/>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" ht="22.5">
       <c r="A120" s="23" t="s">
         <v>128</v>
       </c>
       <c r="B120" s="24"/>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" ht="45">
       <c r="A121" s="25" t="s">
         <v>129</v>
       </c>
@@ -2091,115 +2091,115 @@
         <v>175</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" ht="33.75">
       <c r="A122" s="21" t="s">
         <v>131</v>
       </c>
       <c r="B122" s="22"/>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" ht="22.5">
       <c r="A123" s="21" t="s">
         <v>132</v>
       </c>
       <c r="B123" s="22"/>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" ht="22.5">
       <c r="A124" s="10" t="s">
         <v>133</v>
       </c>
       <c r="B124" s="11"/>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" ht="22.5">
       <c r="A125" s="27" t="s">
         <v>134</v>
       </c>
       <c r="B125" s="27"/>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" ht="22.5">
       <c r="A126" s="27" t="s">
         <v>135</v>
       </c>
       <c r="B126" s="27"/>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" ht="22.5">
       <c r="A127" s="27" t="s">
         <v>136</v>
       </c>
       <c r="B127" s="27"/>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" ht="22.5">
       <c r="A128" s="27" t="s">
         <v>137</v>
       </c>
       <c r="B128" s="27"/>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" ht="22.5">
       <c r="A129" s="27" t="s">
         <v>138</v>
       </c>
       <c r="B129" s="27"/>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" ht="22.5">
       <c r="A130" s="21" t="s">
         <v>139</v>
       </c>
       <c r="B130" s="22"/>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" ht="22.5">
       <c r="A131" s="21" t="s">
         <v>140</v>
       </c>
       <c r="B131" s="22"/>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" ht="22.5">
       <c r="A132" s="27" t="s">
         <v>141</v>
       </c>
       <c r="B132" s="27"/>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" ht="22.5">
       <c r="A133" s="21" t="s">
         <v>142</v>
       </c>
       <c r="B133" s="22"/>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" ht="22.5">
       <c r="A134" s="27" t="s">
         <v>143</v>
       </c>
       <c r="B134" s="27"/>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" ht="22.5">
       <c r="A135" s="8" t="s">
         <v>144</v>
       </c>
       <c r="B135" s="9"/>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" ht="22.5">
       <c r="A136" s="8" t="s">
         <v>145</v>
       </c>
       <c r="B136" s="9"/>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" ht="22.5">
       <c r="A137" s="27" t="s">
         <v>146</v>
       </c>
       <c r="B137" s="27"/>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" ht="22.5">
       <c r="A138" s="27" t="s">
         <v>147</v>
       </c>
       <c r="B138" s="27"/>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" ht="22.5">
       <c r="A139" s="27" t="s">
         <v>148</v>
       </c>
       <c r="B139" s="27"/>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" ht="22.5">
       <c r="A140" s="27" t="s">
         <v>149</v>
       </c>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B142" s="22"/>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" ht="22.5">
       <c r="A143" s="27" t="s">
         <v>152</v>
       </c>
@@ -2229,79 +2229,79 @@
       </c>
       <c r="B144" s="9"/>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" ht="22.5">
       <c r="A145" s="8" t="s">
         <v>154</v>
       </c>
       <c r="B145" s="9"/>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" ht="22.5">
       <c r="A146" s="8" t="s">
         <v>155</v>
       </c>
       <c r="B146" s="9"/>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" ht="22.5">
       <c r="A147" s="28" t="s">
         <v>156</v>
       </c>
       <c r="B147" s="28"/>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" ht="22.5">
       <c r="A148" s="28" t="s">
         <v>157</v>
       </c>
       <c r="B148" s="28"/>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" ht="22.5">
       <c r="A149" s="28" t="s">
         <v>158</v>
       </c>
       <c r="B149" s="28"/>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" ht="22.5">
       <c r="A150" s="28" t="s">
         <v>159</v>
       </c>
       <c r="B150" s="28"/>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" ht="22.5">
       <c r="A151" s="28" t="s">
         <v>160</v>
       </c>
       <c r="B151" s="28"/>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" ht="22.5">
       <c r="A152" s="28" t="s">
         <v>161</v>
       </c>
       <c r="B152" s="28"/>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" ht="22.5">
       <c r="A153" s="28" t="s">
         <v>162</v>
       </c>
       <c r="B153" s="28"/>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" ht="22.5">
       <c r="A154" s="21" t="s">
         <v>163</v>
       </c>
       <c r="B154" s="22"/>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" ht="22.5">
       <c r="A155" s="8" t="s">
         <v>164</v>
       </c>
       <c r="B155" s="9"/>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" ht="22.5">
       <c r="A156" s="8" t="s">
         <v>165</v>
       </c>
       <c r="B156" s="9"/>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" ht="22.5">
       <c r="A157" s="10" t="s">
         <v>166</v>
       </c>
